--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1466883.929102346</v>
+        <v>-1468751.586054307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4788661.747287669</v>
+        <v>4788661.747287668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.4144465799816</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>298.9534966875086</v>
       </c>
       <c r="D11" t="n">
-        <v>10.37851212924258</v>
+        <v>288.363646537184</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>315.6109749887628</v>
       </c>
       <c r="F11" t="n">
-        <v>340.5566506582124</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>346.2457498291944</v>
@@ -1388,7 +1388,7 @@
         <v>245.1190367925126</v>
       </c>
       <c r="I11" t="n">
-        <v>38.61545568127504</v>
+        <v>38.61545568127501</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.31778307460712</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>144.792642863444</v>
       </c>
       <c r="U11" t="n">
-        <v>184.8072504161422</v>
+        <v>39.57865029716515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>282.921573633914</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>303.41170559497</v>
       </c>
       <c r="Y11" t="n">
-        <v>319.9185435725547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,22 +1452,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9310710914868</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>78.74981730988489</v>
       </c>
       <c r="G12" t="n">
         <v>135.8787759891778</v>
       </c>
       <c r="H12" t="n">
-        <v>98.08912816096901</v>
+        <v>55.22158980591986</v>
       </c>
       <c r="I12" t="n">
-        <v>38.96585120160103</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>194.2607938749262</v>
       </c>
       <c r="U12" t="n">
-        <v>159.5256224465527</v>
+        <v>225.8450175300516</v>
       </c>
       <c r="V12" t="n">
-        <v>166.4811920659263</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1528,25 +1528,25 @@
         <v>113.5125850984383</v>
       </c>
       <c r="C13" t="n">
-        <v>100.9274260151289</v>
+        <v>100.9274260151288</v>
       </c>
       <c r="D13" t="n">
-        <v>82.2960779347134</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>80.11456756307021</v>
+        <v>80.11456756307018</v>
       </c>
       <c r="F13" t="n">
-        <v>79.10165293943228</v>
+        <v>79.10165293943226</v>
       </c>
       <c r="G13" t="n">
         <v>100.4435944784957</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.98983177901435</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.20207760100269</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.75910962720316</v>
+        <v>55.75910962720313</v>
       </c>
       <c r="S13" t="n">
         <v>136.2966898641854</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>156.3793288507996</v>
       </c>
       <c r="U13" t="n">
         <v>219.9326530113666</v>
       </c>
       <c r="V13" t="n">
-        <v>145.6567180527333</v>
+        <v>185.818248240329</v>
       </c>
       <c r="W13" t="n">
         <v>220.203603253092</v>
       </c>
       <c r="X13" t="n">
-        <v>159.3902603055382</v>
+        <v>60.21882809043572</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.2652582685958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>316.4144465799816</v>
       </c>
       <c r="C14" t="n">
-        <v>298.9534966875086</v>
+        <v>217.6342192126555</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.8281246511722</v>
+        <v>315.6109749887628</v>
       </c>
       <c r="F14" t="n">
-        <v>340.5566506582124</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>346.2457498291944</v>
@@ -1625,7 +1625,7 @@
         <v>245.1190367925126</v>
       </c>
       <c r="I14" t="n">
-        <v>38.61545568127504</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.31778307460715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>144.7926428634441</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>184.8072504161422</v>
       </c>
       <c r="V14" t="n">
-        <v>261.432863386636</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>282.921573633914</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>303.41170559497</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>319.9185435725546</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I15" t="n">
-        <v>38.96585120160045</v>
+        <v>38.96585120160103</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.215395294710916</v>
+        <v>9.215395294711392</v>
       </c>
       <c r="S15" t="n">
         <v>144.4762462265178</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>92.12554079865947</v>
+        <v>100.9274260151288</v>
       </c>
       <c r="D16" t="n">
-        <v>82.2960779347134</v>
+        <v>82.29607793471337</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>80.11456756307018</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>79.10165293943226</v>
       </c>
       <c r="G16" t="n">
-        <v>100.4435944784957</v>
+        <v>72.27921064990946</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98983177901438</v>
+        <v>84.98983177901435</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.20207760100269</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.75910962720316</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>136.2966898641854</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>156.3793288507996</v>
@@ -1847,13 +1847,13 @@
         <v>218.6357136129014</v>
       </c>
       <c r="D17" t="n">
-        <v>135.7119625121398</v>
+        <v>208.0458634625768</v>
       </c>
       <c r="E17" t="n">
         <v>235.2931919141556</v>
       </c>
       <c r="F17" t="n">
-        <v>260.2388675836053</v>
+        <v>187.9049666331692</v>
       </c>
       <c r="G17" t="n">
         <v>265.9279667545872</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>33.19480202383116</v>
       </c>
       <c r="C19" t="n">
-        <v>20.6096429405217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>1.978294860106217</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7629895619947</v>
+        <v>20.12581140388853</v>
       </c>
       <c r="H19" t="n">
-        <v>4.672048704407207</v>
+        <v>88.52846362509543</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.540301506661294</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.39671642734972</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>55.97890678957822</v>
       </c>
       <c r="T19" t="n">
-        <v>76.0615457761924</v>
+        <v>222.6987239342986</v>
       </c>
       <c r="U19" t="n">
         <v>139.6148699367594</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>163.762762554938</v>
+        <v>236.0966635053744</v>
       </c>
       <c r="C20" t="n">
         <v>218.6357136129014</v>
@@ -2138,7 +2138,7 @@
         <v>104.489467341535</v>
       </c>
       <c r="V20" t="n">
-        <v>181.1150803120288</v>
+        <v>108.7811793615927</v>
       </c>
       <c r="W20" t="n">
         <v>202.6037905593069</v>
@@ -2239,7 +2239,7 @@
         <v>33.19480202383116</v>
       </c>
       <c r="C22" t="n">
-        <v>111.0063593678714</v>
+        <v>20.6096429405217</v>
       </c>
       <c r="D22" t="n">
         <v>1.978294860106217</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.12581140388853</v>
+        <v>111.738657966413</v>
       </c>
       <c r="H22" t="n">
-        <v>4.672048704407207</v>
+        <v>151.3092268625134</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>139.8858201784849</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>79.07247723093101</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>71.94747519398865</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>1.978294860106217</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>166.7629895619947</v>
       </c>
       <c r="H25" t="n">
-        <v>4.672048704407207</v>
+        <v>88.73167913663255</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.540301506661294</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.3756232169279</v>
+        <v>55.97890678957822</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6987239342986</v>
+        <v>76.0615457761924</v>
       </c>
       <c r="U25" t="n">
         <v>139.6148699367594</v>
@@ -2573,7 +2573,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I26" t="n">
-        <v>24.61706769016681</v>
+        <v>24.61706769016683</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.31939508349893</v>
+        <v>66.31939508349896</v>
       </c>
       <c r="T26" t="n">
-        <v>130.7942548723358</v>
+        <v>130.7942548723359</v>
       </c>
       <c r="U26" t="n">
         <v>170.808862425034</v>
       </c>
       <c r="V26" t="n">
-        <v>247.4344753955277</v>
+        <v>247.4344753955278</v>
       </c>
       <c r="W26" t="n">
         <v>268.9231856428058</v>
@@ -2621,7 +2621,7 @@
         <v>289.4133176038619</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.9201555814464</v>
+        <v>305.9201555814465</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.51419710733012</v>
+        <v>99.51419710733015</v>
       </c>
       <c r="C28" t="n">
-        <v>86.92903802402066</v>
+        <v>86.92903802402068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.29768994360518</v>
+        <v>68.29768994360521</v>
       </c>
       <c r="E28" t="n">
-        <v>66.11617957196199</v>
+        <v>66.11617957196202</v>
       </c>
       <c r="F28" t="n">
-        <v>65.10326494832407</v>
+        <v>65.1032649483241</v>
       </c>
       <c r="G28" t="n">
-        <v>86.44520648738748</v>
+        <v>86.44520648738751</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99144378790616</v>
+        <v>70.99144378790619</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2036896098945</v>
+        <v>38.20368960989452</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76072163609494</v>
+        <v>41.76072163609496</v>
       </c>
       <c r="S28" t="n">
         <v>122.2983018730772</v>
@@ -2770,10 +2770,10 @@
         <v>205.9342650202584</v>
       </c>
       <c r="V28" t="n">
-        <v>171.8198602492208</v>
+        <v>171.8198602492209</v>
       </c>
       <c r="W28" t="n">
-        <v>206.2052152619838</v>
+        <v>206.2052152619839</v>
       </c>
       <c r="X28" t="n">
         <v>145.39187231443</v>
@@ -2810,7 +2810,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I29" t="n">
-        <v>24.61706769016682</v>
+        <v>24.61706769016685</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.31939508349893</v>
+        <v>66.31939508349896</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7942548723358</v>
+        <v>130.7942548723359</v>
       </c>
       <c r="U29" t="n">
         <v>170.808862425034</v>
       </c>
       <c r="V29" t="n">
-        <v>247.4344753955277</v>
+        <v>247.4344753955278</v>
       </c>
       <c r="W29" t="n">
         <v>268.9231856428058</v>
@@ -2858,7 +2858,7 @@
         <v>289.4133176038619</v>
       </c>
       <c r="Y29" t="n">
-        <v>305.9201555814464</v>
+        <v>305.9201555814465</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.51419710733012</v>
+        <v>99.51419710733015</v>
       </c>
       <c r="C31" t="n">
-        <v>86.92903802402066</v>
+        <v>86.92903802402068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.29768994360518</v>
+        <v>68.29768994360521</v>
       </c>
       <c r="E31" t="n">
-        <v>66.11617957196199</v>
+        <v>66.11617957196202</v>
       </c>
       <c r="F31" t="n">
-        <v>65.10326494832407</v>
+        <v>65.1032649483241</v>
       </c>
       <c r="G31" t="n">
-        <v>86.44520648738748</v>
+        <v>86.44520648738751</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99144378790618</v>
+        <v>70.99144378790619</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2036896098945</v>
+        <v>38.20368960989453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76072163609494</v>
+        <v>41.76072163609497</v>
       </c>
       <c r="S31" t="n">
         <v>122.2983018730772</v>
@@ -3007,10 +3007,10 @@
         <v>205.9342650202584</v>
       </c>
       <c r="V31" t="n">
-        <v>171.8198602492208</v>
+        <v>171.8198602492209</v>
       </c>
       <c r="W31" t="n">
-        <v>206.2052152619838</v>
+        <v>206.2052152619839</v>
       </c>
       <c r="X31" t="n">
         <v>145.39187231443</v>
@@ -3047,7 +3047,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I32" t="n">
-        <v>24.61706769016685</v>
+        <v>24.61706769016683</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349895</v>
       </c>
       <c r="T32" t="n">
-        <v>130.7942548723359</v>
+        <v>130.7942548723358</v>
       </c>
       <c r="U32" t="n">
         <v>170.808862425034</v>
       </c>
       <c r="V32" t="n">
-        <v>247.4344753955278</v>
+        <v>247.4344753955277</v>
       </c>
       <c r="W32" t="n">
         <v>268.9231856428058</v>
@@ -3095,7 +3095,7 @@
         <v>289.4133176038619</v>
       </c>
       <c r="Y32" t="n">
-        <v>305.9201555814465</v>
+        <v>305.9201555814464</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.51419710733015</v>
+        <v>99.51419710733013</v>
       </c>
       <c r="C34" t="n">
-        <v>86.92903802402068</v>
+        <v>86.92903802402067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.29768994360521</v>
+        <v>68.29768994360519</v>
       </c>
       <c r="E34" t="n">
-        <v>66.11617957196202</v>
+        <v>66.11617957196201</v>
       </c>
       <c r="F34" t="n">
-        <v>65.1032649483241</v>
+        <v>65.10326494832408</v>
       </c>
       <c r="G34" t="n">
-        <v>86.44520648738751</v>
+        <v>86.44520648738749</v>
       </c>
       <c r="H34" t="n">
-        <v>70.99144378790621</v>
+        <v>70.99144378790619</v>
       </c>
       <c r="I34" t="n">
-        <v>38.20368960989452</v>
+        <v>38.20368960989451</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76072163609497</v>
+        <v>41.76072163609496</v>
       </c>
       <c r="S34" t="n">
         <v>122.2983018730772</v>
@@ -3244,10 +3244,10 @@
         <v>205.9342650202584</v>
       </c>
       <c r="V34" t="n">
-        <v>171.8198602492209</v>
+        <v>171.8198602492208</v>
       </c>
       <c r="W34" t="n">
-        <v>206.2052152619839</v>
+        <v>206.2052152619838</v>
       </c>
       <c r="X34" t="n">
         <v>145.39187231443</v>
@@ -3439,10 +3439,10 @@
         <v>86.44520648738749</v>
       </c>
       <c r="H37" t="n">
-        <v>70.99144378790619</v>
+        <v>70.99144378790618</v>
       </c>
       <c r="I37" t="n">
-        <v>38.20368960989451</v>
+        <v>38.20368960989452</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>302.4160585888734</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9551086964003</v>
+        <v>284.9551086964004</v>
       </c>
       <c r="D38" t="n">
         <v>274.3652585460758</v>
@@ -3521,7 +3521,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I38" t="n">
-        <v>24.61706769016679</v>
+        <v>24.61706769016681</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.51419710733009</v>
+        <v>99.51419710733011</v>
       </c>
       <c r="C40" t="n">
-        <v>86.92903802402063</v>
+        <v>86.92903802402064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.29768994360515</v>
+        <v>68.29768994360516</v>
       </c>
       <c r="E40" t="n">
-        <v>66.11617957196196</v>
+        <v>66.11617957196198</v>
       </c>
       <c r="F40" t="n">
-        <v>65.10326494832404</v>
+        <v>65.10326494832405</v>
       </c>
       <c r="G40" t="n">
-        <v>86.44520648738745</v>
+        <v>86.44520648738747</v>
       </c>
       <c r="H40" t="n">
-        <v>70.99144378790614</v>
+        <v>70.99144378790615</v>
       </c>
       <c r="I40" t="n">
-        <v>38.20368960989448</v>
+        <v>38.20368960989449</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76072163609491</v>
+        <v>41.76072163609493</v>
       </c>
       <c r="S40" t="n">
         <v>122.2983018730772</v>
       </c>
       <c r="T40" t="n">
-        <v>142.3809408596913</v>
+        <v>142.3809408596914</v>
       </c>
       <c r="U40" t="n">
         <v>205.9342650202584</v>
@@ -3724,7 +3724,7 @@
         <v>206.2052152619838</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3918723144299</v>
+        <v>145.39187231443</v>
       </c>
       <c r="Y40" t="n">
         <v>138.2668702774876</v>
@@ -3740,7 +3740,7 @@
         <v>302.4160585888734</v>
       </c>
       <c r="C41" t="n">
-        <v>284.9551086964003</v>
+        <v>284.9551086964004</v>
       </c>
       <c r="D41" t="n">
         <v>274.3652585460758</v>
@@ -3758,7 +3758,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I41" t="n">
-        <v>24.61706769016679</v>
+        <v>24.61706769016682</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.3193950834989</v>
+        <v>66.31939508349893</v>
       </c>
       <c r="T41" t="n">
         <v>130.7942548723358</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.215395294710916</v>
+        <v>9.21539529471093</v>
       </c>
       <c r="S42" t="n">
         <v>144.4762462265178</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.51419710733009</v>
+        <v>99.51419710733011</v>
       </c>
       <c r="C43" t="n">
-        <v>86.92903802402063</v>
+        <v>86.92903802402064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.29768994360515</v>
+        <v>68.29768994360516</v>
       </c>
       <c r="E43" t="n">
-        <v>66.11617957196196</v>
+        <v>66.11617957196198</v>
       </c>
       <c r="F43" t="n">
-        <v>65.10326494832404</v>
+        <v>65.10326494832405</v>
       </c>
       <c r="G43" t="n">
-        <v>86.44520648738745</v>
+        <v>86.44520648738747</v>
       </c>
       <c r="H43" t="n">
-        <v>70.99144378790614</v>
+        <v>70.99144378790615</v>
       </c>
       <c r="I43" t="n">
-        <v>38.20368960989448</v>
+        <v>38.2036896098945</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76072163609491</v>
+        <v>41.76072163609494</v>
       </c>
       <c r="S43" t="n">
         <v>122.2983018730772</v>
       </c>
       <c r="T43" t="n">
-        <v>142.3809408596913</v>
+        <v>142.3809408596914</v>
       </c>
       <c r="U43" t="n">
         <v>205.9342650202584</v>
@@ -3961,7 +3961,7 @@
         <v>206.2052152619838</v>
       </c>
       <c r="X43" t="n">
-        <v>145.3918723144299</v>
+        <v>145.39187231443</v>
       </c>
       <c r="Y43" t="n">
         <v>138.2668702774876</v>
@@ -3995,7 +3995,7 @@
         <v>231.1206488014043</v>
       </c>
       <c r="I44" t="n">
-        <v>24.61706769016675</v>
+        <v>24.61706769016678</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.31939508349885</v>
+        <v>66.3193950834989</v>
       </c>
       <c r="T44" t="n">
         <v>130.7942548723358</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.215395294710916</v>
+        <v>9.21539529471093</v>
       </c>
       <c r="S45" t="n">
         <v>144.4762462265178</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.51419710733005</v>
+        <v>99.51419710733006</v>
       </c>
       <c r="C46" t="n">
-        <v>86.92903802402058</v>
+        <v>86.9290380240206</v>
       </c>
       <c r="D46" t="n">
-        <v>68.29768994360511</v>
+        <v>68.29768994360512</v>
       </c>
       <c r="E46" t="n">
-        <v>66.11617957196192</v>
+        <v>66.11617957196194</v>
       </c>
       <c r="F46" t="n">
-        <v>65.103264948324</v>
+        <v>65.10326494832401</v>
       </c>
       <c r="G46" t="n">
-        <v>86.44520648738741</v>
+        <v>86.44520648738742</v>
       </c>
       <c r="H46" t="n">
-        <v>70.99144378790609</v>
+        <v>70.99144378790611</v>
       </c>
       <c r="I46" t="n">
-        <v>38.20368960989443</v>
+        <v>38.20368960989445</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76072163609487</v>
+        <v>41.76072163609489</v>
       </c>
       <c r="S46" t="n">
         <v>122.2983018730771</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1341.939948528136</v>
+        <v>1597.535361395299</v>
       </c>
       <c r="C11" t="n">
-        <v>1039.966719550854</v>
+        <v>1295.562132418018</v>
       </c>
       <c r="D11" t="n">
-        <v>1029.483373965761</v>
+        <v>1004.285721774398</v>
       </c>
       <c r="E11" t="n">
-        <v>1029.483373965761</v>
+        <v>685.4867571392838</v>
       </c>
       <c r="F11" t="n">
-        <v>685.4867571392833</v>
+        <v>685.4867571392838</v>
       </c>
       <c r="G11" t="n">
         <v>335.7435754936329</v>
       </c>
       <c r="H11" t="n">
-        <v>88.14858883452928</v>
+        <v>88.14858883452926</v>
       </c>
       <c r="I11" t="n">
-        <v>49.14307804536256</v>
+        <v>49.14307804536257</v>
       </c>
       <c r="J11" t="n">
-        <v>267.3395342243638</v>
+        <v>99.93388520401075</v>
       </c>
       <c r="K11" t="n">
-        <v>715.1042646880953</v>
+        <v>226.7946572222893</v>
       </c>
       <c r="L11" t="n">
-        <v>961.816024270013</v>
+        <v>834.5630269706612</v>
       </c>
       <c r="M11" t="n">
-        <v>1209.663587357961</v>
+        <v>1364.887141005611</v>
       </c>
       <c r="N11" t="n">
-        <v>1466.135391512155</v>
+        <v>1973.032731816973</v>
       </c>
       <c r="O11" t="n">
-        <v>1694.97918224338</v>
+        <v>2201.876522548198</v>
       </c>
       <c r="P11" t="n">
-        <v>2174.371783375076</v>
+        <v>2362.688402590125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2457.153902268128</v>
+        <v>2435.278680729873</v>
       </c>
       <c r="R11" t="n">
-        <v>2457.153902268128</v>
+        <v>2457.153902268129</v>
       </c>
       <c r="S11" t="n">
-        <v>2457.153902268128</v>
+        <v>2376.024828455394</v>
       </c>
       <c r="T11" t="n">
-        <v>2457.153902268128</v>
+        <v>2229.769633643834</v>
       </c>
       <c r="U11" t="n">
-        <v>2270.479911948793</v>
+        <v>2189.791199000233</v>
       </c>
       <c r="V11" t="n">
-        <v>2270.479911948793</v>
+        <v>2189.791199000233</v>
       </c>
       <c r="W11" t="n">
-        <v>1984.700544641809</v>
+        <v>1904.011831693249</v>
       </c>
       <c r="X11" t="n">
-        <v>1984.700544641809</v>
+        <v>1597.535361395299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.550500629127</v>
+        <v>1597.535361395299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.3224904497417</v>
+        <v>804.3439145234818</v>
       </c>
       <c r="C12" t="n">
-        <v>763.8694611686147</v>
+        <v>629.8908852423548</v>
       </c>
       <c r="D12" t="n">
-        <v>630.6057529953957</v>
+        <v>480.9564755811035</v>
       </c>
       <c r="E12" t="n">
-        <v>471.3682979899402</v>
+        <v>321.719020575648</v>
       </c>
       <c r="F12" t="n">
-        <v>324.8337400168251</v>
+        <v>242.1737505656633</v>
       </c>
       <c r="G12" t="n">
-        <v>187.5824511388677</v>
+        <v>104.9224616877059</v>
       </c>
       <c r="H12" t="n">
-        <v>88.50252370354542</v>
+        <v>49.14307804536257</v>
       </c>
       <c r="I12" t="n">
-        <v>49.14307804536256</v>
+        <v>49.14307804536257</v>
       </c>
       <c r="J12" t="n">
         <v>185.4060128672027</v>
       </c>
       <c r="K12" t="n">
-        <v>544.9219152334722</v>
+        <v>283.1013305910194</v>
       </c>
       <c r="L12" t="n">
-        <v>1065.439531154506</v>
+        <v>827.9192246273054</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.147524622748</v>
+        <v>1054.627218095547</v>
       </c>
       <c r="N12" t="n">
-        <v>1539.264449003152</v>
+        <v>1301.744142475951</v>
       </c>
       <c r="O12" t="n">
-        <v>1743.108361402628</v>
+        <v>1743.108361402629</v>
       </c>
       <c r="P12" t="n">
-        <v>2202.656147010235</v>
+        <v>2202.656147010236</v>
       </c>
       <c r="Q12" t="n">
-        <v>2457.153902268128</v>
+        <v>2457.153902268129</v>
       </c>
       <c r="R12" t="n">
         <v>2447.845422172461</v>
@@ -5151,19 +5151,19 @@
         <v>2105.686795807366</v>
       </c>
       <c r="U12" t="n">
-        <v>1944.549803437111</v>
+        <v>1877.560515473981</v>
       </c>
       <c r="V12" t="n">
-        <v>1776.386983168498</v>
+        <v>1642.408407242238</v>
       </c>
       <c r="W12" t="n">
-        <v>1522.149626440297</v>
+        <v>1388.171050514037</v>
       </c>
       <c r="X12" t="n">
-        <v>1314.298126234764</v>
+        <v>1180.319550308504</v>
       </c>
       <c r="Y12" t="n">
-        <v>1106.53782746981</v>
+        <v>972.5592515435499</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>496.4999658542924</v>
+        <v>551.9503006475281</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5530708895158</v>
+        <v>450.0034056827516</v>
       </c>
       <c r="D13" t="n">
-        <v>311.4257194403103</v>
+        <v>450.0034056827516</v>
       </c>
       <c r="E13" t="n">
-        <v>230.5019138210475</v>
+        <v>369.0796000634888</v>
       </c>
       <c r="F13" t="n">
-        <v>150.6012542862673</v>
+        <v>289.1789405287087</v>
       </c>
       <c r="G13" t="n">
-        <v>49.14307804536256</v>
+        <v>187.720764287804</v>
       </c>
       <c r="H13" t="n">
-        <v>49.14307804536256</v>
+        <v>101.8724493595067</v>
       </c>
       <c r="I13" t="n">
-        <v>49.14307804536256</v>
+        <v>49.14307804536257</v>
       </c>
       <c r="J13" t="n">
         <v>108.3243806864319</v>
       </c>
       <c r="K13" t="n">
-        <v>293.1771713007719</v>
+        <v>293.177171300772</v>
       </c>
       <c r="L13" t="n">
-        <v>566.8904036235131</v>
+        <v>566.8904036235133</v>
       </c>
       <c r="M13" t="n">
         <v>862.302695492273</v>
@@ -5224,25 +5224,25 @@
         <v>1655.346196009797</v>
       </c>
       <c r="S13" t="n">
-        <v>1517.672771904559</v>
+        <v>1517.67277190456</v>
       </c>
       <c r="T13" t="n">
-        <v>1517.672771904559</v>
+        <v>1359.713853873449</v>
       </c>
       <c r="U13" t="n">
-        <v>1295.518576943583</v>
+        <v>1137.559658912473</v>
       </c>
       <c r="V13" t="n">
-        <v>1148.390578910519</v>
+        <v>949.8644586697161</v>
       </c>
       <c r="W13" t="n">
-        <v>925.9626968366888</v>
+        <v>727.4365765958858</v>
       </c>
       <c r="X13" t="n">
-        <v>764.9624339018017</v>
+        <v>666.6094775146375</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.1591427214018</v>
+        <v>666.6094775146375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1612.114836143364</v>
+        <v>1188.166822530485</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.141607166082</v>
+        <v>968.334277871237</v>
       </c>
       <c r="D14" t="n">
-        <v>1310.141607166082</v>
+        <v>968.334277871237</v>
       </c>
       <c r="E14" t="n">
-        <v>1032.537440851767</v>
+        <v>649.535313236123</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5408240252896</v>
+        <v>649.535313236123</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7976423796388</v>
+        <v>299.7921315904722</v>
       </c>
       <c r="H14" t="n">
-        <v>91.20265572053523</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I14" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J14" t="n">
         <v>270.3936011103697</v>
@@ -5282,46 +5282,46 @@
         <v>718.1583315741013</v>
       </c>
       <c r="L14" t="n">
-        <v>1092.644147032055</v>
+        <v>912.4420989175273</v>
       </c>
       <c r="M14" t="n">
-        <v>1340.491710120003</v>
+        <v>1160.289662005476</v>
       </c>
       <c r="N14" t="n">
-        <v>1596.963514274197</v>
+        <v>1416.76146615967</v>
       </c>
       <c r="O14" t="n">
-        <v>1825.807305005422</v>
+        <v>1825.807305005423</v>
       </c>
       <c r="P14" t="n">
         <v>2305.199906137118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2587.98202503017</v>
+        <v>2587.982025030171</v>
       </c>
       <c r="R14" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="S14" t="n">
-        <v>2528.728172755692</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="T14" t="n">
-        <v>2382.472977944132</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="U14" t="n">
-        <v>2195.798987624796</v>
+        <v>2423.183256249091</v>
       </c>
       <c r="V14" t="n">
-        <v>1931.725388244356</v>
+        <v>2423.183256249091</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.725388244356</v>
+        <v>2137.403888942107</v>
       </c>
       <c r="X14" t="n">
-        <v>1931.725388244356</v>
+        <v>1830.927418644158</v>
       </c>
       <c r="Y14" t="n">
-        <v>1931.725388244356</v>
+        <v>1507.777374631476</v>
       </c>
     </row>
     <row r="15">
@@ -5331,55 +5331,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.0472588237792</v>
+        <v>957.0472588237798</v>
       </c>
       <c r="C15" t="n">
-        <v>782.5942295426522</v>
+        <v>782.5942295426528</v>
       </c>
       <c r="D15" t="n">
-        <v>633.6598198814009</v>
+        <v>633.6598198814015</v>
       </c>
       <c r="E15" t="n">
-        <v>474.4223648759454</v>
+        <v>474.4223648759461</v>
       </c>
       <c r="F15" t="n">
-        <v>327.8878069028304</v>
+        <v>327.887806902831</v>
       </c>
       <c r="G15" t="n">
-        <v>190.636518024873</v>
+        <v>190.6365180248736</v>
       </c>
       <c r="H15" t="n">
-        <v>91.55659058955079</v>
+        <v>91.5565905895514</v>
       </c>
       <c r="I15" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J15" t="n">
-        <v>188.4600797532086</v>
+        <v>188.4600797532087</v>
       </c>
       <c r="K15" t="n">
-        <v>286.1553974770253</v>
+        <v>547.9759821194782</v>
       </c>
       <c r="L15" t="n">
-        <v>830.9732915133113</v>
+        <v>1092.793876155764</v>
       </c>
       <c r="M15" t="n">
-        <v>1476.912960038997</v>
+        <v>1738.73354468145</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.852628564682</v>
+        <v>2215.222449115479</v>
       </c>
       <c r="O15" t="n">
-        <v>2326.696540964158</v>
+        <v>2419.066361514956</v>
       </c>
       <c r="P15" t="n">
-        <v>2470.966185618227</v>
+        <v>2563.336006169025</v>
       </c>
       <c r="Q15" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="R15" t="n">
-        <v>2600.548766472758</v>
+        <v>2600.548766472759</v>
       </c>
       <c r="S15" t="n">
         <v>2454.613164223751</v>
@@ -5388,7 +5388,7 @@
         <v>2258.390140107664</v>
       </c>
       <c r="U15" t="n">
-        <v>2030.263859774278</v>
+        <v>2030.263859774279</v>
       </c>
       <c r="V15" t="n">
         <v>1795.111751542536</v>
@@ -5397,10 +5397,10 @@
         <v>1540.874394814334</v>
       </c>
       <c r="X15" t="n">
-        <v>1333.022894608801</v>
+        <v>1333.022894608802</v>
       </c>
       <c r="Y15" t="n">
-        <v>1125.262595843847</v>
+        <v>1125.262595843848</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.6870893666039</v>
+        <v>609.6828464286123</v>
       </c>
       <c r="C16" t="n">
-        <v>322.6309875497761</v>
+        <v>507.7359514638356</v>
       </c>
       <c r="D16" t="n">
-        <v>239.5036361005706</v>
+        <v>424.60860001463</v>
       </c>
       <c r="E16" t="n">
-        <v>239.5036361005706</v>
+        <v>343.6847943953672</v>
       </c>
       <c r="F16" t="n">
-        <v>239.5036361005706</v>
+        <v>263.7841348605872</v>
       </c>
       <c r="G16" t="n">
-        <v>138.0454598596659</v>
+        <v>190.77483117381</v>
       </c>
       <c r="H16" t="n">
-        <v>52.19714493136852</v>
+        <v>104.9265162455127</v>
       </c>
       <c r="I16" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J16" t="n">
         <v>111.3784475724378</v>
@@ -5440,10 +5440,10 @@
         <v>296.2312381867778</v>
       </c>
       <c r="L16" t="n">
-        <v>569.944470509519</v>
+        <v>569.9444705095191</v>
       </c>
       <c r="M16" t="n">
-        <v>865.3567623782785</v>
+        <v>865.3567623782787</v>
       </c>
       <c r="N16" t="n">
         <v>1160.7405843613</v>
@@ -5455,31 +5455,31 @@
         <v>1632.56769140201</v>
       </c>
       <c r="Q16" t="n">
-        <v>1714.722595852573</v>
+        <v>1714.722595852574</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.400262895803</v>
+        <v>1714.722595852574</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.726838790565</v>
+        <v>1714.722595852574</v>
       </c>
       <c r="T16" t="n">
-        <v>1362.767920759454</v>
+        <v>1556.763677821463</v>
       </c>
       <c r="U16" t="n">
-        <v>1140.613725798478</v>
+        <v>1334.609482860486</v>
       </c>
       <c r="V16" t="n">
-        <v>952.9185255557212</v>
+        <v>1146.914282617729</v>
       </c>
       <c r="W16" t="n">
-        <v>730.4906434818909</v>
+        <v>924.4864005438991</v>
       </c>
       <c r="X16" t="n">
-        <v>569.4903805470037</v>
+        <v>763.4861376090121</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.6870893666039</v>
+        <v>609.6828464286123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1345.741545027626</v>
+        <v>1345.741545027627</v>
       </c>
       <c r="C17" t="n">
-        <v>1124.897389863079</v>
+        <v>1124.89738986308</v>
       </c>
       <c r="D17" t="n">
-        <v>987.8145994467761</v>
+        <v>914.7500530321944</v>
       </c>
       <c r="E17" t="n">
-        <v>750.1447086243967</v>
+        <v>677.0801622098149</v>
       </c>
       <c r="F17" t="n">
-        <v>487.2771656106539</v>
+        <v>487.277165610654</v>
       </c>
       <c r="G17" t="n">
         <v>218.6630577777377</v>
       </c>
       <c r="H17" t="n">
-        <v>52.19714493136853</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I17" t="n">
-        <v>52.19714493136853</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J17" t="n">
-        <v>270.3936011103697</v>
+        <v>102.9879520900167</v>
       </c>
       <c r="K17" t="n">
-        <v>718.1583315741013</v>
+        <v>550.7526825537483</v>
       </c>
       <c r="L17" t="n">
-        <v>1092.644147032055</v>
+        <v>1158.52105230212</v>
       </c>
       <c r="M17" t="n">
-        <v>1340.491710120004</v>
+        <v>1514.147314051216</v>
       </c>
       <c r="N17" t="n">
-        <v>1596.963514274198</v>
+        <v>1770.619118205409</v>
       </c>
       <c r="O17" t="n">
-        <v>1825.807305005423</v>
+        <v>2376.455088386752</v>
       </c>
       <c r="P17" t="n">
-        <v>2305.199906137118</v>
+        <v>2537.26696842868</v>
       </c>
       <c r="Q17" t="n">
-        <v>2587.98202503017</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="R17" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="S17" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="T17" t="n">
-        <v>2544.731125569601</v>
+        <v>2544.731125569602</v>
       </c>
       <c r="U17" t="n">
-        <v>2439.186209063</v>
+        <v>2439.186209063002</v>
       </c>
       <c r="V17" t="n">
-        <v>2256.241683495294</v>
+        <v>2256.241683495296</v>
       </c>
       <c r="W17" t="n">
-        <v>2051.591390001045</v>
+        <v>2051.591390001046</v>
       </c>
       <c r="X17" t="n">
-        <v>1826.24399351583</v>
+        <v>1826.243993515831</v>
       </c>
       <c r="Y17" t="n">
-        <v>1584.223023315883</v>
+        <v>1584.223023315884</v>
       </c>
     </row>
     <row r="18">
@@ -5583,37 +5583,37 @@
         <v>327.8878069028308</v>
       </c>
       <c r="G18" t="n">
-        <v>190.6365180248735</v>
+        <v>190.6365180248736</v>
       </c>
       <c r="H18" t="n">
-        <v>91.55659058955139</v>
+        <v>91.5565905895514</v>
       </c>
       <c r="I18" t="n">
-        <v>52.19714493136853</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J18" t="n">
-        <v>63.62995476620393</v>
+        <v>63.62995476620394</v>
       </c>
       <c r="K18" t="n">
         <v>161.3252724900206</v>
       </c>
       <c r="L18" t="n">
-        <v>533.4194159801456</v>
+        <v>533.4194159801459</v>
       </c>
       <c r="M18" t="n">
-        <v>1179.359084505831</v>
+        <v>1179.359084505832</v>
       </c>
       <c r="N18" t="n">
         <v>1825.298753031517</v>
       </c>
       <c r="O18" t="n">
-        <v>2419.066361514955</v>
+        <v>2419.066361514956</v>
       </c>
       <c r="P18" t="n">
-        <v>2563.336006169024</v>
+        <v>2563.336006169025</v>
       </c>
       <c r="Q18" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="R18" t="n">
         <v>2600.548766472759</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>248.1799490394794</v>
+        <v>339.4897636125598</v>
       </c>
       <c r="C19" t="n">
-        <v>227.3621278874373</v>
+        <v>170.5535806846529</v>
       </c>
       <c r="D19" t="n">
-        <v>225.3638502509664</v>
+        <v>168.5553030481819</v>
       </c>
       <c r="E19" t="n">
-        <v>225.3638502509664</v>
+        <v>168.5553030481819</v>
       </c>
       <c r="F19" t="n">
-        <v>225.3638502509664</v>
+        <v>168.5553030481819</v>
       </c>
       <c r="G19" t="n">
-        <v>56.91638604693137</v>
+        <v>148.2262006200117</v>
       </c>
       <c r="H19" t="n">
-        <v>52.19714493136853</v>
+        <v>58.80351008961227</v>
       </c>
       <c r="I19" t="n">
-        <v>52.19714493136853</v>
+        <v>58.80351008961227</v>
       </c>
       <c r="J19" t="n">
-        <v>52.19714493136853</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="K19" t="n">
         <v>171.3937344130446</v>
@@ -5695,28 +5695,28 @@
         <v>1195.947885282857</v>
       </c>
       <c r="R19" t="n">
-        <v>1104.638070709776</v>
+        <v>1195.947885282857</v>
       </c>
       <c r="S19" t="n">
-        <v>1048.093720417273</v>
+        <v>1139.403534990353</v>
       </c>
       <c r="T19" t="n">
-        <v>971.2638761988967</v>
+        <v>914.4553289961124</v>
       </c>
       <c r="U19" t="n">
-        <v>830.2387550506548</v>
+        <v>773.4302078478705</v>
       </c>
       <c r="V19" t="n">
-        <v>723.6726286206327</v>
+        <v>666.8640814178484</v>
       </c>
       <c r="W19" t="n">
-        <v>582.3738203595369</v>
+        <v>525.5652731567526</v>
       </c>
       <c r="X19" t="n">
-        <v>502.5026312373844</v>
+        <v>445.6940840346001</v>
       </c>
       <c r="Y19" t="n">
-        <v>429.8284138697192</v>
+        <v>373.0198666669347</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1197.961936277662</v>
       </c>
       <c r="D20" t="n">
-        <v>987.8145994467759</v>
+        <v>987.8145994467765</v>
       </c>
       <c r="E20" t="n">
-        <v>750.1447086243965</v>
+        <v>750.144708624397</v>
       </c>
       <c r="F20" t="n">
-        <v>487.2771656106537</v>
+        <v>487.2771656106543</v>
       </c>
       <c r="G20" t="n">
         <v>218.6630577777377</v>
       </c>
       <c r="H20" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I20" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J20" t="n">
-        <v>270.3936011103697</v>
+        <v>102.9879520900167</v>
       </c>
       <c r="K20" t="n">
-        <v>718.1583315741013</v>
+        <v>229.8487241082952</v>
       </c>
       <c r="L20" t="n">
-        <v>925.8438083352423</v>
+        <v>837.6170938566672</v>
       </c>
       <c r="M20" t="n">
-        <v>1173.691371423191</v>
+        <v>1303.95547329791</v>
       </c>
       <c r="N20" t="n">
-        <v>1430.163175577385</v>
+        <v>1560.427277452104</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.999145758728</v>
+        <v>2166.263247633447</v>
       </c>
       <c r="P20" t="n">
-        <v>2515.391746890423</v>
+        <v>2327.075127675374</v>
       </c>
       <c r="Q20" t="n">
-        <v>2587.98202503017</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="R20" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="S20" t="n">
-        <v>2609.857246568426</v>
+        <v>2609.857246568427</v>
       </c>
       <c r="T20" t="n">
-        <v>2544.731125569601</v>
+        <v>2544.731125569602</v>
       </c>
       <c r="U20" t="n">
-        <v>2439.186209063</v>
+        <v>2439.186209063001</v>
       </c>
       <c r="V20" t="n">
-        <v>2256.241683495294</v>
+        <v>2329.306229909877</v>
       </c>
       <c r="W20" t="n">
-        <v>2051.591390001045</v>
+        <v>2124.655936415628</v>
       </c>
       <c r="X20" t="n">
-        <v>1826.24399351583</v>
+        <v>1899.308539930413</v>
       </c>
       <c r="Y20" t="n">
-        <v>1584.223023315883</v>
+        <v>1657.287569730466</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>190.6365180248736</v>
       </c>
       <c r="H21" t="n">
-        <v>91.55659058955138</v>
+        <v>91.5565905895514</v>
       </c>
       <c r="I21" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J21" t="n">
-        <v>188.4600797532086</v>
+        <v>188.4600797532087</v>
       </c>
       <c r="K21" t="n">
-        <v>547.9759821194781</v>
+        <v>547.9759821194782</v>
       </c>
       <c r="L21" t="n">
-        <v>819.3201313095237</v>
+        <v>798.9112003973603</v>
       </c>
       <c r="M21" t="n">
-        <v>1046.028124777765</v>
+        <v>1444.850868923046</v>
       </c>
       <c r="N21" t="n">
         <v>1691.96779330345</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>191.3714018366951</v>
+        <v>487.6081253884246</v>
       </c>
       <c r="C22" t="n">
-        <v>79.24376611157251</v>
+        <v>466.7903042363825</v>
       </c>
       <c r="D22" t="n">
-        <v>77.24548847510158</v>
+        <v>464.7920265999116</v>
       </c>
       <c r="E22" t="n">
-        <v>77.24548847510158</v>
+        <v>464.7920265999116</v>
       </c>
       <c r="F22" t="n">
-        <v>77.24548847510158</v>
+        <v>317.9020791020013</v>
       </c>
       <c r="G22" t="n">
-        <v>56.91638604693136</v>
+        <v>205.0347478227962</v>
       </c>
       <c r="H22" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I22" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J22" t="n">
-        <v>52.19714493136852</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="K22" t="n">
         <v>171.3937344130446</v>
@@ -5950,10 +5950,10 @@
         <v>673.6836349326175</v>
       </c>
       <c r="X22" t="n">
-        <v>445.6940840346001</v>
+        <v>593.8124458104649</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.90150489107</v>
+        <v>521.1382284427996</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1420.297204634343</v>
+        <v>1420.297204634344</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.453049469796</v>
+        <v>1199.453049469797</v>
       </c>
       <c r="D23" t="n">
-        <v>989.3057126389108</v>
+        <v>989.3057126389114</v>
       </c>
       <c r="E23" t="n">
-        <v>751.6358218165315</v>
+        <v>751.6358218165319</v>
       </c>
       <c r="F23" t="n">
-        <v>488.7682788027887</v>
+        <v>488.7682788027892</v>
       </c>
       <c r="G23" t="n">
         <v>220.154170969872</v>
@@ -5987,22 +5987,22 @@
         <v>53.68825812350288</v>
       </c>
       <c r="J23" t="n">
-        <v>104.4790652821511</v>
+        <v>158.7534269388978</v>
       </c>
       <c r="K23" t="n">
-        <v>552.2437957458826</v>
+        <v>285.6141989571763</v>
       </c>
       <c r="L23" t="n">
-        <v>1160.012165494255</v>
+        <v>893.3825687055482</v>
       </c>
       <c r="M23" t="n">
-        <v>1407.859728582203</v>
+        <v>1557.774762983896</v>
       </c>
       <c r="N23" t="n">
-        <v>1664.331532736397</v>
+        <v>2222.166957262245</v>
       </c>
       <c r="O23" t="n">
-        <v>2270.16750291774</v>
+        <v>2451.01074799347</v>
       </c>
       <c r="P23" t="n">
         <v>2611.822628035397</v>
@@ -6014,25 +6014,25 @@
         <v>2684.412906175144</v>
       </c>
       <c r="S23" t="n">
-        <v>2684.412906175144</v>
+        <v>2684.412906175145</v>
       </c>
       <c r="T23" t="n">
-        <v>2619.286785176319</v>
+        <v>2619.28678517632</v>
       </c>
       <c r="U23" t="n">
         <v>2513.741868669718</v>
       </c>
       <c r="V23" t="n">
-        <v>2330.797343102012</v>
+        <v>2330.797343102013</v>
       </c>
       <c r="W23" t="n">
-        <v>2126.147049607762</v>
+        <v>2126.147049607763</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.799653122547</v>
+        <v>1900.799653122548</v>
       </c>
       <c r="Y23" t="n">
-        <v>1658.7786829226</v>
+        <v>1658.778682922601</v>
       </c>
     </row>
     <row r="24">
@@ -6081,7 +6081,7 @@
         <v>1568.109907196544</v>
       </c>
       <c r="O24" t="n">
-        <v>2161.877515679982</v>
+        <v>1897.302818895061</v>
       </c>
       <c r="P24" t="n">
         <v>2356.850604502668</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>249.6710622316138</v>
+        <v>489.0992385805591</v>
       </c>
       <c r="C25" t="n">
-        <v>228.8532410795717</v>
+        <v>468.2814174285169</v>
       </c>
       <c r="D25" t="n">
-        <v>226.8549634431007</v>
+        <v>466.283139792046</v>
       </c>
       <c r="E25" t="n">
-        <v>226.8549634431007</v>
+        <v>318.3700462096529</v>
       </c>
       <c r="F25" t="n">
-        <v>226.8549634431007</v>
+        <v>318.3700462096529</v>
       </c>
       <c r="G25" t="n">
-        <v>58.40749923906572</v>
+        <v>149.9225820056179</v>
       </c>
       <c r="H25" t="n">
-        <v>53.68825812350288</v>
+        <v>60.29462328174662</v>
       </c>
       <c r="I25" t="n">
-        <v>53.68825812350288</v>
+        <v>60.29462328174662</v>
       </c>
       <c r="J25" t="n">
         <v>53.68825812350288</v>
@@ -6172,25 +6172,25 @@
         <v>1197.438998474991</v>
       </c>
       <c r="S25" t="n">
-        <v>1049.584833609407</v>
+        <v>1140.894648182488</v>
       </c>
       <c r="T25" t="n">
-        <v>824.6366276151664</v>
+        <v>1064.064803964112</v>
       </c>
       <c r="U25" t="n">
-        <v>683.6115064669245</v>
+        <v>923.0396828158698</v>
       </c>
       <c r="V25" t="n">
-        <v>577.0453800369024</v>
+        <v>816.4735563858477</v>
       </c>
       <c r="W25" t="n">
-        <v>435.7465717758066</v>
+        <v>675.1747481247519</v>
       </c>
       <c r="X25" t="n">
-        <v>355.875382653654</v>
+        <v>595.3035590025993</v>
       </c>
       <c r="Y25" t="n">
-        <v>283.2011652859887</v>
+        <v>522.629341634934</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>1866.745917687859</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.912474560181</v>
+        <v>1578.912474560182</v>
       </c>
       <c r="D26" t="n">
         <v>1301.775849766166</v>
       </c>
       <c r="E26" t="n">
-        <v>997.1166709806562</v>
+        <v>997.1166709806563</v>
       </c>
       <c r="F26" t="n">
         <v>667.2598400037832</v>
@@ -6218,37 +6218,37 @@
         <v>331.6564442077365</v>
       </c>
       <c r="H26" t="n">
-        <v>98.20124339823647</v>
+        <v>98.2012433982365</v>
       </c>
       <c r="I26" t="n">
         <v>73.33551845867403</v>
       </c>
       <c r="J26" t="n">
-        <v>124.1263256173223</v>
+        <v>291.5319746376753</v>
       </c>
       <c r="K26" t="n">
-        <v>571.8910560810539</v>
+        <v>739.2967051014069</v>
       </c>
       <c r="L26" t="n">
-        <v>1179.659425829426</v>
+        <v>1347.065074849779</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.525387075278</v>
+        <v>2020.418207035161</v>
       </c>
       <c r="N26" t="n">
-        <v>2561.970646397337</v>
+        <v>2276.890011189354</v>
       </c>
       <c r="O26" t="n">
-        <v>3167.806616578679</v>
+        <v>2882.725981370698</v>
       </c>
       <c r="P26" t="n">
-        <v>3594.185644793954</v>
+        <v>3362.118582502393</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.775922933701</v>
+        <v>3644.900701395446</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.775922933701</v>
+        <v>3666.775922933702</v>
       </c>
       <c r="S26" t="n">
         <v>3599.786634970571</v>
@@ -6257,19 +6257,19 @@
         <v>3467.671226008616</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.137021538884</v>
+        <v>3295.137021538885</v>
       </c>
       <c r="V26" t="n">
-        <v>3045.203208008048</v>
+        <v>3045.203208008049</v>
       </c>
       <c r="W26" t="n">
-        <v>2773.563626550668</v>
+        <v>2773.563626550669</v>
       </c>
       <c r="X26" t="n">
-        <v>2481.226942102323</v>
+        <v>2481.226942102324</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.216683939246</v>
+        <v>2172.216683939247</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.33551845867403</v>
       </c>
       <c r="J27" t="n">
-        <v>84.76832829350946</v>
+        <v>209.5984532805142</v>
       </c>
       <c r="K27" t="n">
-        <v>182.4636460173261</v>
+        <v>441.2764740371689</v>
       </c>
       <c r="L27" t="n">
-        <v>360.1495982031876</v>
+        <v>618.9624262230303</v>
       </c>
       <c r="M27" t="n">
-        <v>1047.905604783929</v>
+        <v>1306.718432803772</v>
       </c>
       <c r="N27" t="n">
-        <v>1769.571479764451</v>
+        <v>2028.384307784294</v>
       </c>
       <c r="O27" t="n">
-        <v>1973.415392163928</v>
+        <v>2232.22822018377</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.963177771534</v>
+        <v>2376.497864837839</v>
       </c>
       <c r="Q27" t="n">
         <v>2630.995620095732</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.2915915628154</v>
+        <v>560.2915915628153</v>
       </c>
       <c r="C28" t="n">
-        <v>472.484482447643</v>
+        <v>472.4844824476429</v>
       </c>
       <c r="D28" t="n">
-        <v>403.4969168480418</v>
+        <v>403.4969168480417</v>
       </c>
       <c r="E28" t="n">
-        <v>336.7128970783832</v>
+        <v>336.7128970783831</v>
       </c>
       <c r="F28" t="n">
-        <v>270.9520233932074</v>
+        <v>270.9520233932072</v>
       </c>
       <c r="G28" t="n">
-        <v>183.6336330019069</v>
+        <v>183.6336330019067</v>
       </c>
       <c r="H28" t="n">
-        <v>111.9251039232139</v>
+        <v>111.925103923214</v>
       </c>
       <c r="I28" t="n">
         <v>73.33551845867403</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3752252109405</v>
+        <v>146.3752252109404</v>
       </c>
       <c r="K28" t="n">
-        <v>345.0864199364777</v>
+        <v>345.0864199364776</v>
       </c>
       <c r="L28" t="n">
-        <v>632.6580563704158</v>
+        <v>632.658056370416</v>
       </c>
       <c r="M28" t="n">
         <v>941.9287523503726</v>
@@ -6415,19 +6415,19 @@
         <v>1537.19288472515</v>
       </c>
       <c r="U28" t="n">
-        <v>1329.178475613777</v>
+        <v>1329.178475613778</v>
       </c>
       <c r="V28" t="n">
         <v>1155.623061220625</v>
       </c>
       <c r="W28" t="n">
-        <v>947.3349649963989</v>
+        <v>947.3349649963991</v>
       </c>
       <c r="X28" t="n">
-        <v>800.4744879111161</v>
+        <v>800.4744879111163</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.8109825803206</v>
+        <v>660.8109825803205</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.745917687858</v>
+        <v>1866.745917687859</v>
       </c>
       <c r="C29" t="n">
         <v>1578.912474560181</v>
@@ -6449,13 +6449,13 @@
         <v>997.1166709806553</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2598400037823</v>
+        <v>667.2598400037822</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6564442077356</v>
+        <v>331.6564442077355</v>
       </c>
       <c r="H29" t="n">
-        <v>98.20124339823647</v>
+        <v>98.2012433982365</v>
       </c>
       <c r="I29" t="n">
         <v>73.33551845867403</v>
@@ -6470,19 +6470,19 @@
         <v>1347.065074849779</v>
       </c>
       <c r="M29" t="n">
-        <v>2039.931036095631</v>
+        <v>1594.912637937727</v>
       </c>
       <c r="N29" t="n">
-        <v>2729.37629541769</v>
+        <v>2276.890011189354</v>
       </c>
       <c r="O29" t="n">
-        <v>2958.220086148915</v>
+        <v>2882.725981370697</v>
       </c>
       <c r="P29" t="n">
-        <v>3437.61268728061</v>
+        <v>3362.118582502393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.775922933701</v>
+        <v>3644.900701395445</v>
       </c>
       <c r="R29" t="n">
         <v>3666.775922933701</v>
@@ -6491,22 +6491,22 @@
         <v>3599.786634970571</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.671226008615</v>
+        <v>3467.671226008616</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.137021538883</v>
+        <v>3295.137021538884</v>
       </c>
       <c r="V29" t="n">
-        <v>3045.203208008047</v>
+        <v>3045.203208008048</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.563626550667</v>
+        <v>2773.563626550668</v>
       </c>
       <c r="X29" t="n">
-        <v>2481.226942102322</v>
+        <v>2481.226942102323</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.216683939245</v>
+        <v>2172.216683939246</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.33551845867403</v>
       </c>
       <c r="J30" t="n">
-        <v>84.76832829350943</v>
+        <v>209.5984532805141</v>
       </c>
       <c r="K30" t="n">
-        <v>182.4636460173261</v>
+        <v>569.1143556467837</v>
       </c>
       <c r="L30" t="n">
-        <v>727.2815400536122</v>
+        <v>1113.93224968307</v>
       </c>
       <c r="M30" t="n">
-        <v>1076.06554636639</v>
+        <v>1340.640243151311</v>
       </c>
       <c r="N30" t="n">
-        <v>1323.182470746794</v>
+        <v>1587.757167531715</v>
       </c>
       <c r="O30" t="n">
         <v>1916.950079230232</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.2915915628151</v>
+        <v>560.2915915628155</v>
       </c>
       <c r="C31" t="n">
-        <v>472.4844824476428</v>
+        <v>472.4844824476431</v>
       </c>
       <c r="D31" t="n">
-        <v>403.4969168480416</v>
+        <v>403.4969168480419</v>
       </c>
       <c r="E31" t="n">
-        <v>336.712897078383</v>
+        <v>336.7128970783833</v>
       </c>
       <c r="F31" t="n">
-        <v>270.9520233932072</v>
+        <v>270.9520233932074</v>
       </c>
       <c r="G31" t="n">
-        <v>183.6336330019067</v>
+        <v>183.6336330019069</v>
       </c>
       <c r="H31" t="n">
-        <v>111.9251039232134</v>
+        <v>111.9251039232138</v>
       </c>
       <c r="I31" t="n">
         <v>73.33551845867403</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3752252109405</v>
+        <v>146.3752252109404</v>
       </c>
       <c r="K31" t="n">
-        <v>345.0864199364773</v>
+        <v>345.0864199364776</v>
       </c>
       <c r="L31" t="n">
-        <v>632.6580563704157</v>
+        <v>632.6580563704158</v>
       </c>
       <c r="M31" t="n">
-        <v>941.9287523503724</v>
+        <v>941.9287523503726</v>
       </c>
       <c r="N31" t="n">
         <v>1251.170978444591</v>
@@ -6658,13 +6658,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W31" t="n">
-        <v>947.3349649963986</v>
+        <v>947.334964996399</v>
       </c>
       <c r="X31" t="n">
-        <v>800.4744879111158</v>
+        <v>800.4744879111162</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.8109825803203</v>
+        <v>660.8109825803207</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1301.775849766166</v>
       </c>
       <c r="E32" t="n">
-        <v>997.1166709806558</v>
+        <v>997.1166709806562</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2598400037828</v>
+        <v>667.2598400037832</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6564442077361</v>
+        <v>331.6564442077365</v>
       </c>
       <c r="H32" t="n">
         <v>98.2012433982365</v>
@@ -6698,31 +6698,31 @@
         <v>73.33551845867403</v>
       </c>
       <c r="J32" t="n">
-        <v>291.5319746376752</v>
+        <v>124.1263256173222</v>
       </c>
       <c r="K32" t="n">
-        <v>739.2967051014068</v>
+        <v>571.8910560810539</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.065074849779</v>
+        <v>1179.659425829426</v>
       </c>
       <c r="M32" t="n">
-        <v>2039.931036095631</v>
+        <v>1819.511814158858</v>
       </c>
       <c r="N32" t="n">
-        <v>2729.37629541769</v>
+        <v>2508.957073480916</v>
       </c>
       <c r="O32" t="n">
-        <v>3335.212265599032</v>
+        <v>3114.793043662259</v>
       </c>
       <c r="P32" t="n">
-        <v>3496.02414564096</v>
+        <v>3594.185644793954</v>
       </c>
       <c r="Q32" t="n">
-        <v>3666.775922933702</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.775922933702</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="S32" t="n">
         <v>3599.786634970571</v>
@@ -6734,7 +6734,7 @@
         <v>3295.137021538885</v>
       </c>
       <c r="V32" t="n">
-        <v>3045.203208008049</v>
+        <v>3045.203208008048</v>
       </c>
       <c r="W32" t="n">
         <v>2773.563626550669</v>
@@ -6777,25 +6777,25 @@
         <v>73.33551845867403</v>
       </c>
       <c r="J33" t="n">
-        <v>209.5984532805141</v>
+        <v>84.76832829350943</v>
       </c>
       <c r="K33" t="n">
-        <v>307.2937710043308</v>
+        <v>182.4636460173261</v>
       </c>
       <c r="L33" t="n">
-        <v>852.1116650406168</v>
+        <v>727.2815400536122</v>
       </c>
       <c r="M33" t="n">
-        <v>1078.819658508858</v>
+        <v>1415.037546634353</v>
       </c>
       <c r="N33" t="n">
-        <v>1713.106166830756</v>
+        <v>1662.154471014758</v>
       </c>
       <c r="O33" t="n">
-        <v>1916.950079230232</v>
+        <v>2255.922079498196</v>
       </c>
       <c r="P33" t="n">
-        <v>2376.497864837839</v>
+        <v>2400.191724152265</v>
       </c>
       <c r="Q33" t="n">
         <v>2630.995620095732</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.2915915628153</v>
+        <v>560.2915915628156</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4844824476429</v>
+        <v>472.4844824476432</v>
       </c>
       <c r="D34" t="n">
-        <v>403.4969168480417</v>
+        <v>403.496916848042</v>
       </c>
       <c r="E34" t="n">
-        <v>336.7128970783831</v>
+        <v>336.7128970783834</v>
       </c>
       <c r="F34" t="n">
-        <v>270.9520233932072</v>
+        <v>270.9520233932075</v>
       </c>
       <c r="G34" t="n">
-        <v>183.6336330019067</v>
+        <v>183.633633001907</v>
       </c>
       <c r="H34" t="n">
-        <v>111.925103923214</v>
+        <v>111.9251039232139</v>
       </c>
       <c r="I34" t="n">
         <v>73.33551845867403</v>
@@ -6862,10 +6862,10 @@
         <v>345.0864199364776</v>
       </c>
       <c r="L34" t="n">
-        <v>632.6580563704156</v>
+        <v>632.658056370416</v>
       </c>
       <c r="M34" t="n">
-        <v>941.9287523503722</v>
+        <v>941.9287523503726</v>
       </c>
       <c r="N34" t="n">
         <v>1251.170978444591</v>
@@ -6874,13 +6874,13 @@
         <v>1526.859928522165</v>
       </c>
       <c r="P34" t="n">
-        <v>1750.714893707695</v>
+        <v>1750.714893707696</v>
       </c>
       <c r="Q34" t="n">
         <v>1846.728202269456</v>
       </c>
       <c r="R34" t="n">
-        <v>1804.545655162289</v>
+        <v>1804.54565516229</v>
       </c>
       <c r="S34" t="n">
         <v>1681.012016906656</v>
@@ -6895,13 +6895,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W34" t="n">
-        <v>947.3349649963986</v>
+        <v>947.3349649963988</v>
       </c>
       <c r="X34" t="n">
         <v>800.4744879111159</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.8109825803205</v>
+        <v>660.8109825803208</v>
       </c>
     </row>
     <row r="35">
@@ -6920,61 +6920,61 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E35" t="n">
-        <v>997.116670980655</v>
+        <v>997.1166709806553</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2598400037818</v>
+        <v>667.2598400037823</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6564442077356</v>
+        <v>331.6564442077358</v>
       </c>
       <c r="H35" t="n">
-        <v>98.20124339823647</v>
+        <v>98.2012433982365</v>
       </c>
       <c r="I35" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867403</v>
       </c>
       <c r="J35" t="n">
-        <v>124.1263256173222</v>
+        <v>291.5319746376752</v>
       </c>
       <c r="K35" t="n">
-        <v>571.8910560810538</v>
+        <v>739.2967051014068</v>
       </c>
       <c r="L35" t="n">
-        <v>1179.659425829426</v>
+        <v>1347.065074849779</v>
       </c>
       <c r="M35" t="n">
-        <v>1872.525387075278</v>
+        <v>1609.319973405552</v>
       </c>
       <c r="N35" t="n">
-        <v>2561.970646397337</v>
+        <v>2298.765232727611</v>
       </c>
       <c r="O35" t="n">
-        <v>3167.806616578679</v>
+        <v>2904.601202908953</v>
       </c>
       <c r="P35" t="n">
-        <v>3594.185644793953</v>
+        <v>3383.993804040649</v>
       </c>
       <c r="Q35" t="n">
-        <v>3666.7759229337</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.7759229337</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="S35" t="n">
-        <v>3599.78663497057</v>
+        <v>3599.786634970571</v>
       </c>
       <c r="T35" t="n">
         <v>3467.671226008615</v>
       </c>
       <c r="U35" t="n">
-        <v>3295.137021538883</v>
+        <v>3295.137021538884</v>
       </c>
       <c r="V35" t="n">
-        <v>3045.203208008047</v>
+        <v>3045.203208008048</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.563626550667</v>
+        <v>2773.563626550668</v>
       </c>
       <c r="X35" t="n">
         <v>2481.226942102322</v>
@@ -7011,25 +7011,25 @@
         <v>112.6949641168569</v>
       </c>
       <c r="I36" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867403</v>
       </c>
       <c r="J36" t="n">
-        <v>84.7683282935094</v>
+        <v>209.5984532805141</v>
       </c>
       <c r="K36" t="n">
-        <v>304.5396588618622</v>
+        <v>441.2764740371689</v>
       </c>
       <c r="L36" t="n">
-        <v>849.3575528981482</v>
+        <v>618.9624262230303</v>
       </c>
       <c r="M36" t="n">
-        <v>1076.06554636639</v>
+        <v>1306.718432803772</v>
       </c>
       <c r="N36" t="n">
-        <v>1323.182470746794</v>
+        <v>2028.384307784294</v>
       </c>
       <c r="O36" t="n">
-        <v>1916.950079230232</v>
+        <v>2232.22822018377</v>
       </c>
       <c r="P36" t="n">
         <v>2376.497864837839</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.2915915628153</v>
+        <v>560.2915915628156</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4844824476428</v>
+        <v>472.4844824476432</v>
       </c>
       <c r="D37" t="n">
-        <v>403.4969168480416</v>
+        <v>403.496916848042</v>
       </c>
       <c r="E37" t="n">
-        <v>336.712897078383</v>
+        <v>336.7128970783834</v>
       </c>
       <c r="F37" t="n">
-        <v>270.9520233932072</v>
+        <v>270.9520233932076</v>
       </c>
       <c r="G37" t="n">
-        <v>183.6336330019067</v>
+        <v>183.6336330019071</v>
       </c>
       <c r="H37" t="n">
-        <v>111.9251039232136</v>
+        <v>111.925103923214</v>
       </c>
       <c r="I37" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867403</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3752252109403</v>
+        <v>146.3752252109404</v>
       </c>
       <c r="K37" t="n">
-        <v>345.0864199364775</v>
+        <v>345.0864199364776</v>
       </c>
       <c r="L37" t="n">
-        <v>632.6580563704158</v>
+        <v>632.658056370416</v>
       </c>
       <c r="M37" t="n">
-        <v>941.9287523503724</v>
+        <v>941.9287523503727</v>
       </c>
       <c r="N37" t="n">
         <v>1251.170978444591</v>
@@ -7111,34 +7111,34 @@
         <v>1526.859928522165</v>
       </c>
       <c r="P37" t="n">
-        <v>1750.714893707695</v>
+        <v>1750.714893707696</v>
       </c>
       <c r="Q37" t="n">
         <v>1846.728202269456</v>
       </c>
       <c r="R37" t="n">
-        <v>1804.545655162289</v>
+        <v>1804.54565516229</v>
       </c>
       <c r="S37" t="n">
         <v>1681.012016906656</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.192884725149</v>
+        <v>1537.19288472515</v>
       </c>
       <c r="U37" t="n">
-        <v>1329.178475613777</v>
+        <v>1329.178475613778</v>
       </c>
       <c r="V37" t="n">
         <v>1155.623061220625</v>
       </c>
       <c r="W37" t="n">
-        <v>947.3349649963986</v>
+        <v>947.3349649963992</v>
       </c>
       <c r="X37" t="n">
-        <v>800.4744879111158</v>
+        <v>800.4744879111164</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.8109825803205</v>
+        <v>660.8109825803208</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E38" t="n">
-        <v>997.1166709806557</v>
+        <v>997.1166709806553</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2598400037828</v>
+        <v>667.2598400037823</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6564442077361</v>
+        <v>331.6564442077357</v>
       </c>
       <c r="H38" t="n">
         <v>98.20124339823644</v>
@@ -7181,10 +7181,10 @@
         <v>1347.065074849779</v>
       </c>
       <c r="M38" t="n">
-        <v>1609.319973405552</v>
+        <v>2039.931036095631</v>
       </c>
       <c r="N38" t="n">
-        <v>2298.76523272761</v>
+        <v>2675.757412177728</v>
       </c>
       <c r="O38" t="n">
         <v>2904.601202908953</v>
@@ -7199,7 +7199,7 @@
         <v>3666.775922933701</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.78663497057</v>
+        <v>3599.786634970571</v>
       </c>
       <c r="T38" t="n">
         <v>3467.671226008615</v>
@@ -7217,7 +7217,7 @@
         <v>2481.226942102323</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.216683939246</v>
+        <v>2172.216683939245</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>73.33551845867402</v>
       </c>
       <c r="J39" t="n">
-        <v>153.0002713540834</v>
+        <v>209.5984532805141</v>
       </c>
       <c r="K39" t="n">
-        <v>512.5161737203529</v>
+        <v>569.1143556467837</v>
       </c>
       <c r="L39" t="n">
-        <v>1057.334067756639</v>
+        <v>1113.93224968307</v>
       </c>
       <c r="M39" t="n">
-        <v>1284.04206122488</v>
+        <v>1465.989242450352</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.158985605285</v>
+        <v>1713.106166830756</v>
       </c>
       <c r="O39" t="n">
-        <v>2124.926594088723</v>
+        <v>1916.950079230232</v>
       </c>
       <c r="P39" t="n">
-        <v>2584.47437969633</v>
+        <v>2376.497864837839</v>
       </c>
       <c r="Q39" t="n">
         <v>2630.995620095732</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.2915915628153</v>
+        <v>560.2915915628154</v>
       </c>
       <c r="C40" t="n">
         <v>472.484482447643</v>
@@ -7315,10 +7315,10 @@
         <v>403.4969168480418</v>
       </c>
       <c r="E40" t="n">
-        <v>336.7128970783832</v>
+        <v>336.7128970783833</v>
       </c>
       <c r="F40" t="n">
-        <v>270.9520233932074</v>
+        <v>270.9520233932075</v>
       </c>
       <c r="G40" t="n">
         <v>183.633633001907</v>
@@ -7333,13 +7333,13 @@
         <v>146.3752252109405</v>
       </c>
       <c r="K40" t="n">
-        <v>345.0864199364775</v>
+        <v>345.0864199364777</v>
       </c>
       <c r="L40" t="n">
-        <v>632.6580563704158</v>
+        <v>632.658056370416</v>
       </c>
       <c r="M40" t="n">
-        <v>941.9287523503725</v>
+        <v>941.9287523503722</v>
       </c>
       <c r="N40" t="n">
         <v>1251.170978444591</v>
@@ -7348,34 +7348,34 @@
         <v>1526.859928522165</v>
       </c>
       <c r="P40" t="n">
-        <v>1750.714893707696</v>
+        <v>1750.714893707695</v>
       </c>
       <c r="Q40" t="n">
         <v>1846.728202269456</v>
       </c>
       <c r="R40" t="n">
-        <v>1804.54565516229</v>
+        <v>1804.545655162289</v>
       </c>
       <c r="S40" t="n">
         <v>1681.012016906656</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.19288472515</v>
+        <v>1537.192884725149</v>
       </c>
       <c r="U40" t="n">
-        <v>1329.178475613778</v>
+        <v>1329.178475613777</v>
       </c>
       <c r="V40" t="n">
         <v>1155.623061220625</v>
       </c>
       <c r="W40" t="n">
-        <v>947.3349649963991</v>
+        <v>947.334964996399</v>
       </c>
       <c r="X40" t="n">
-        <v>800.4744879111163</v>
+        <v>800.4744879111162</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.8109825803203</v>
+        <v>660.8109825803206</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.745917687858</v>
+        <v>1866.745917687859</v>
       </c>
       <c r="C41" t="n">
         <v>1578.912474560181</v>
@@ -7394,40 +7394,40 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E41" t="n">
-        <v>997.1166709806555</v>
+        <v>997.1166709806557</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2598400037825</v>
+        <v>667.2598400037828</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6564442077359</v>
+        <v>331.6564442077361</v>
       </c>
       <c r="H41" t="n">
-        <v>98.20124339823641</v>
+        <v>98.20124339823644</v>
       </c>
       <c r="I41" t="n">
         <v>73.335518458674</v>
       </c>
       <c r="J41" t="n">
-        <v>291.5319746376752</v>
+        <v>291.5319746376751</v>
       </c>
       <c r="K41" t="n">
-        <v>739.2967051014068</v>
+        <v>739.2967051014067</v>
       </c>
       <c r="L41" t="n">
-        <v>1347.065074849779</v>
+        <v>1327.552245789308</v>
       </c>
       <c r="M41" t="n">
-        <v>2039.931036095631</v>
+        <v>2020.41820703516</v>
       </c>
       <c r="N41" t="n">
-        <v>2296.402840249825</v>
+        <v>2276.890011189354</v>
       </c>
       <c r="O41" t="n">
         <v>2882.725981370696</v>
       </c>
       <c r="P41" t="n">
-        <v>3362.118582502391</v>
+        <v>3362.118582502392</v>
       </c>
       <c r="Q41" t="n">
         <v>3644.900701395444</v>
@@ -7436,7 +7436,7 @@
         <v>3666.7759229337</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.78663497057</v>
+        <v>3599.786634970571</v>
       </c>
       <c r="T41" t="n">
         <v>3467.671226008615</v>
@@ -7488,25 +7488,25 @@
         <v>73.335518458674</v>
       </c>
       <c r="J42" t="n">
-        <v>84.7683282935094</v>
+        <v>209.5984532805141</v>
       </c>
       <c r="K42" t="n">
-        <v>182.4636460173261</v>
+        <v>569.1143556467836</v>
       </c>
       <c r="L42" t="n">
-        <v>360.1495982031875</v>
+        <v>1113.93224968307</v>
       </c>
       <c r="M42" t="n">
-        <v>1047.905604783929</v>
+        <v>1340.640243151311</v>
       </c>
       <c r="N42" t="n">
-        <v>1769.571479764451</v>
+        <v>1587.757167531715</v>
       </c>
       <c r="O42" t="n">
-        <v>2363.339088247889</v>
+        <v>1916.950079230233</v>
       </c>
       <c r="P42" t="n">
-        <v>2507.608732901958</v>
+        <v>2376.497864837839</v>
       </c>
       <c r="Q42" t="n">
         <v>2630.995620095732</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.2915915628153</v>
+        <v>560.2915915628154</v>
       </c>
       <c r="C43" t="n">
         <v>472.484482447643</v>
@@ -7552,10 +7552,10 @@
         <v>403.4969168480418</v>
       </c>
       <c r="E43" t="n">
-        <v>336.7128970783832</v>
+        <v>336.7128970783833</v>
       </c>
       <c r="F43" t="n">
-        <v>270.9520233932074</v>
+        <v>270.9520233932075</v>
       </c>
       <c r="G43" t="n">
         <v>183.633633001907</v>
@@ -7567,22 +7567,22 @@
         <v>73.335518458674</v>
       </c>
       <c r="J43" t="n">
-        <v>146.3752252109405</v>
+        <v>146.3752252109402</v>
       </c>
       <c r="K43" t="n">
-        <v>345.0864199364777</v>
+        <v>345.0864199364773</v>
       </c>
       <c r="L43" t="n">
-        <v>632.658056370416</v>
+        <v>632.6580563704156</v>
       </c>
       <c r="M43" t="n">
-        <v>941.9287523503729</v>
+        <v>941.9287523503723</v>
       </c>
       <c r="N43" t="n">
         <v>1251.170978444591</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.859928522166</v>
+        <v>1526.859928522165</v>
       </c>
       <c r="P43" t="n">
         <v>1750.714893707695</v>
@@ -7606,13 +7606,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W43" t="n">
-        <v>947.3349649963986</v>
+        <v>947.334964996399</v>
       </c>
       <c r="X43" t="n">
-        <v>800.4744879111158</v>
+        <v>800.4744879111162</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.8109825803203</v>
+        <v>660.8109825803206</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>997.1166709806553</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2598400037821</v>
+        <v>667.2598400037825</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6564442077354</v>
+        <v>331.6564442077359</v>
       </c>
       <c r="H44" t="n">
-        <v>98.20124339823637</v>
+        <v>98.20124339823641</v>
       </c>
       <c r="I44" t="n">
         <v>73.335518458674</v>
       </c>
       <c r="J44" t="n">
-        <v>291.5319746376752</v>
+        <v>291.5319746376751</v>
       </c>
       <c r="K44" t="n">
-        <v>739.2967051014068</v>
+        <v>663.8026003231892</v>
       </c>
       <c r="L44" t="n">
-        <v>1347.065074849779</v>
+        <v>1271.570970071561</v>
       </c>
       <c r="M44" t="n">
-        <v>2039.931036095631</v>
+        <v>1964.436931317413</v>
       </c>
       <c r="N44" t="n">
-        <v>2729.37629541769</v>
+        <v>2653.882190639471</v>
       </c>
       <c r="O44" t="n">
-        <v>3335.212265599032</v>
+        <v>2882.725981370696</v>
       </c>
       <c r="P44" t="n">
-        <v>3496.02414564096</v>
+        <v>3362.118582502392</v>
       </c>
       <c r="Q44" t="n">
-        <v>3666.7759229337</v>
+        <v>3644.900701395444</v>
       </c>
       <c r="R44" t="n">
         <v>3666.7759229337</v>
@@ -7676,7 +7676,7 @@
         <v>3599.78663497057</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.671226008614</v>
+        <v>3467.671226008615</v>
       </c>
       <c r="U44" t="n">
         <v>3295.137021538883</v>
@@ -7725,22 +7725,22 @@
         <v>73.335518458674</v>
       </c>
       <c r="J45" t="n">
-        <v>84.7683282935094</v>
+        <v>209.5984532805141</v>
       </c>
       <c r="K45" t="n">
-        <v>444.2842306597789</v>
+        <v>441.2764740371692</v>
       </c>
       <c r="L45" t="n">
-        <v>989.1021246960649</v>
+        <v>618.9624262230305</v>
       </c>
       <c r="M45" t="n">
-        <v>1215.810118164306</v>
+        <v>1306.718432803772</v>
       </c>
       <c r="N45" t="n">
-        <v>1462.927042544711</v>
+        <v>2028.384307784294</v>
       </c>
       <c r="O45" t="n">
-        <v>1916.950079230232</v>
+        <v>2232.22822018377</v>
       </c>
       <c r="P45" t="n">
         <v>2376.497864837839</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.291591562815</v>
+        <v>560.2915915628151</v>
       </c>
       <c r="C46" t="n">
-        <v>472.4844824476427</v>
+        <v>472.4844824476428</v>
       </c>
       <c r="D46" t="n">
         <v>403.4969168480416</v>
       </c>
       <c r="E46" t="n">
-        <v>336.712897078383</v>
+        <v>336.7128970783831</v>
       </c>
       <c r="F46" t="n">
-        <v>270.9520233932073</v>
+        <v>270.9520233932074</v>
       </c>
       <c r="G46" t="n">
         <v>183.6336330019069</v>
       </c>
       <c r="H46" t="n">
-        <v>111.9251039232138</v>
+        <v>111.9251039232139</v>
       </c>
       <c r="I46" t="n">
         <v>73.335518458674</v>
@@ -7807,22 +7807,22 @@
         <v>146.3752252109405</v>
       </c>
       <c r="K46" t="n">
-        <v>345.0864199364778</v>
+        <v>345.0864199364777</v>
       </c>
       <c r="L46" t="n">
-        <v>632.6580563704142</v>
+        <v>632.658056370416</v>
       </c>
       <c r="M46" t="n">
-        <v>941.928752350371</v>
+        <v>941.9287523503729</v>
       </c>
       <c r="N46" t="n">
-        <v>1251.17097844459</v>
+        <v>1251.170978444591</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.859928522164</v>
+        <v>1526.859928522166</v>
       </c>
       <c r="P46" t="n">
-        <v>1750.714893707694</v>
+        <v>1750.714893707695</v>
       </c>
       <c r="Q46" t="n">
         <v>1846.728202269455</v>
@@ -7846,10 +7846,10 @@
         <v>947.3349649963984</v>
       </c>
       <c r="X46" t="n">
-        <v>800.4744879111156</v>
+        <v>800.4744879111157</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.8109825803201</v>
+        <v>660.8109825803202</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>52.95756791766843</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>285.3298494414158</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>355.2260471284524</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>43.6202365010065</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>346.2946098335078</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>239.9195015426279</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>182.0222708227552</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>182.0222708227559</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>423.4663384418628</v>
+        <v>423.466338441863</v>
       </c>
       <c r="N15" t="n">
-        <v>402.8512567124051</v>
+        <v>231.6888687410352</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.30284904120813</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>182.0222708227556</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>108.867372384997</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>43.6202365010065</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>196.371910408347</v>
+        <v>196.3719104083474</v>
       </c>
       <c r="M18" t="n">
-        <v>423.4663384418628</v>
+        <v>423.4663384418631</v>
       </c>
       <c r="N18" t="n">
-        <v>402.8512567124051</v>
+        <v>402.8512567124052</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>13.53708021991417</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>220.6977942962572</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>43.6202365010065</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>94.60423939816593</v>
+        <v>73.98915766870778</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>423.4663384418631</v>
       </c>
       <c r="N21" t="n">
-        <v>402.851256712405</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>54.82258753206742</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>420.7521527175755</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>412.0407981052063</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>182.6699445209389</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>126.6151508071118</v>
       </c>
       <c r="P24" t="n">
-        <v>51.21560017031979</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>429.8036051489224</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>268.2496446195424</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.62023650100647</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.3360636695333</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>153.0416181058537</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>429.8036051489227</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.1545025387316</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.6202365010065</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>123.3091038833697</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>126.615150807112</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>395.9644699408923</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>99.15302944746941</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>43.6202365010065</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>391.0803878196906</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.1440965091561</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>14.55286410891424</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>268.2496446195415</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>43.6202365010065</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>123.3091038833699</v>
+        <v>135.3360636695334</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>14.55286410891378</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>383.1864362908109</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>68.92115460664039</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>126.6151508071119</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.9512862065403</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>361.090252918834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>126.6151508071127</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.64206746906196</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>247.8887410780157</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,16 +11309,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.15302944746759</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>43.6202365010065</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>135.3360636695338</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>252.7061861475207</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>316.4144465799816</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.9851344079414</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315.6109749887628</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>340.5566506582124</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.31778307460715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>144.7926428634441</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.228600118977</v>
       </c>
       <c r="V11" t="n">
-        <v>261.432863386636</v>
+        <v>261.4328633866359</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>303.41170559497</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>319.9185435725546</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.29607793471337</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98983177901438</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.20207760100272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>156.3793288507996</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.16153018759576</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.17143221510244</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>152.2652582685958</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>81.31927747485302</v>
       </c>
       <c r="D14" t="n">
         <v>288.363646537184</v>
       </c>
       <c r="E14" t="n">
-        <v>40.78285033759068</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>340.5566506582124</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.61545568127501</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>80.31778307460712</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>144.792642863444</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>261.4328633866359</v>
       </c>
       <c r="W14" t="n">
-        <v>282.921573633914</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>303.41170559497</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.9185435725547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>113.5125850984383</v>
       </c>
       <c r="C16" t="n">
-        <v>8.801885216469408</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>80.11456756307021</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.10165293943228</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>28.16438382858621</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.20207760100272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.75910962720313</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>136.2966898641854</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>72.33390095043701</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>72.33390095043603</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.33390095043649</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>72.33390095043606</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1312885.651819791</v>
+        <v>1312885.651819792</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1312885.651819791</v>
+        <v>1312885.651819792</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1312885.651819791</v>
+        <v>1312885.651819792</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1312885.651819791</v>
+        <v>1312885.651819792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225300.9931471856</v>
+        <v>225300.9931471855</v>
       </c>
       <c r="C2" t="n">
         <v>225300.9931471856</v>
@@ -26323,7 +26323,7 @@
         <v>193297.9167676312</v>
       </c>
       <c r="F2" t="n">
-        <v>196540.981223404</v>
+        <v>196540.9812234041</v>
       </c>
       <c r="G2" t="n">
         <v>224203.0976208731</v>
@@ -26332,28 +26332,28 @@
         <v>224203.0976208731</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="J2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="K2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="L2" t="n">
         <v>225786.4867126779</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>225786.4867126777</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126777</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.4867126779</v>
       </c>
-      <c r="L2" t="n">
-        <v>225786.4867126778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225786.4867126778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.4867126779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126778</v>
-      </c>
       <c r="P2" t="n">
-        <v>225786.4867126776</v>
+        <v>225786.4867126777</v>
       </c>
     </row>
     <row r="3">
@@ -26375,31 +26375,31 @@
         <v>783566.8302825363</v>
       </c>
       <c r="F3" t="n">
-        <v>10938.36960724679</v>
+        <v>10938.36960724682</v>
       </c>
       <c r="G3" t="n">
-        <v>64254.22645968574</v>
+        <v>64254.22645968572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4956.478889569521</v>
+        <v>4956.478889569461</v>
       </c>
       <c r="J3" t="n">
-        <v>64257.34728919397</v>
+        <v>64257.347289194</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64254.22645968572</v>
+        <v>64254.22645968573</v>
       </c>
       <c r="M3" t="n">
-        <v>153083.1452652066</v>
+        <v>153083.1452652067</v>
       </c>
       <c r="N3" t="n">
-        <v>9350.293002359827</v>
+        <v>9350.293002359787</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>138151.6119587101</v>
       </c>
       <c r="G4" t="n">
-        <v>195403.0846721515</v>
+        <v>195403.0846721516</v>
       </c>
       <c r="H4" t="n">
-        <v>195403.0846721515</v>
+        <v>195403.0846721516</v>
       </c>
       <c r="I4" t="n">
         <v>197614.9034775225</v>
@@ -26457,7 +26457,7 @@
         <v>183652.889959236</v>
       </c>
       <c r="P4" t="n">
-        <v>183652.889959236</v>
+        <v>183652.8899592361</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57769.42482464071</v>
+        <v>57769.42482464072</v>
       </c>
       <c r="F5" t="n">
-        <v>60090.51565800523</v>
+        <v>60090.51565800525</v>
       </c>
       <c r="G5" t="n">
-        <v>66842.75136330439</v>
+        <v>66842.7513633044</v>
       </c>
       <c r="H5" t="n">
-        <v>66842.75136330439</v>
+        <v>66842.7513633044</v>
       </c>
       <c r="I5" t="n">
         <v>67975.9973893265</v>
       </c>
       <c r="J5" t="n">
-        <v>77332.51001878189</v>
+        <v>77332.5100187819</v>
       </c>
       <c r="K5" t="n">
         <v>77332.51001878189</v>
       </c>
       <c r="L5" t="n">
-        <v>77332.5100187819</v>
+        <v>77332.51001878189</v>
       </c>
       <c r="M5" t="n">
+        <v>77332.51001878189</v>
+      </c>
+      <c r="N5" t="n">
         <v>77332.51001878188</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77332.51001878189</v>
       </c>
       <c r="O5" t="n">
         <v>77332.51001878188</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233849.7460189179</v>
+        <v>-233854.1595967861</v>
       </c>
       <c r="C6" t="n">
-        <v>-233849.7460189179</v>
+        <v>-233854.1595967861</v>
       </c>
       <c r="D6" t="n">
-        <v>-233849.7460189179</v>
+        <v>-233854.159596786</v>
       </c>
       <c r="E6" t="n">
-        <v>-782832.0523298485</v>
+        <v>-783127.4029657126</v>
       </c>
       <c r="F6" t="n">
-        <v>-12639.51600055819</v>
+        <v>-12905.38423227879</v>
       </c>
       <c r="G6" t="n">
-        <v>-102296.9648742686</v>
+        <v>-102311.3593205577</v>
       </c>
       <c r="H6" t="n">
-        <v>-38042.7384145828</v>
+        <v>-38057.13286087201</v>
       </c>
       <c r="I6" t="n">
-        <v>-44760.89304374035</v>
+        <v>-44760.89304374026</v>
       </c>
       <c r="J6" t="n">
-        <v>-99456.26055453399</v>
+        <v>-99456.26055453409</v>
       </c>
       <c r="K6" t="n">
         <v>-35198.91326534004</v>
       </c>
       <c r="L6" t="n">
-        <v>-99453.13972502583</v>
+        <v>-99453.1397250257</v>
       </c>
       <c r="M6" t="n">
-        <v>-188282.0585305466</v>
+        <v>-188282.0585305469</v>
       </c>
       <c r="N6" t="n">
-        <v>-44549.20626769985</v>
+        <v>-44549.20626770001</v>
       </c>
       <c r="O6" t="n">
-        <v>-35198.91326534015</v>
+        <v>-35198.91326534</v>
       </c>
       <c r="P6" t="n">
-        <v>-35198.91326534026</v>
+        <v>-35198.91326534029</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F2" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G2" t="n">
         <v>146.6371781581061</v>
@@ -26707,25 +26707,25 @@
         <v>146.6371781581061</v>
       </c>
       <c r="J2" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="K2" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="L2" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="M2" t="n">
         <v>80.31778307460716</v>
       </c>
       <c r="N2" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="O2" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="P2" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>680.9761598573616</v>
       </c>
       <c r="O3" t="n">
-        <v>680.9761598573616</v>
+        <v>680.9761598573615</v>
       </c>
       <c r="P3" t="n">
-        <v>680.9761598573616</v>
+        <v>680.9761598573615</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>614.288475567032</v>
+        <v>614.2884755670322</v>
       </c>
       <c r="F4" t="n">
-        <v>652.4643116421065</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="G4" t="n">
-        <v>652.4643116421066</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="H4" t="n">
-        <v>652.4643116421065</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="I4" t="n">
         <v>671.103226543786</v>
       </c>
       <c r="J4" t="n">
-        <v>916.6939807334253</v>
+        <v>916.6939807334254</v>
       </c>
       <c r="K4" t="n">
         <v>916.6939807334253</v>
       </c>
       <c r="L4" t="n">
-        <v>916.6939807334254</v>
+        <v>916.6939807334253</v>
       </c>
       <c r="M4" t="n">
-        <v>916.6939807334251</v>
+        <v>916.6939807334253</v>
       </c>
       <c r="N4" t="n">
         <v>916.6939807334252</v>
       </c>
       <c r="O4" t="n">
-        <v>916.693980733425</v>
+        <v>916.6939807334251</v>
       </c>
       <c r="P4" t="n">
-        <v>916.693980733425</v>
+        <v>916.6939807334251</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,34 +27018,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>614.288475567032</v>
+        <v>614.2884755670322</v>
       </c>
       <c r="F4" t="n">
+        <v>38.17583607507459</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.6389149016793</v>
+      </c>
+      <c r="J4" t="n">
+        <v>245.5907541896394</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>614.2884755670322</v>
+      </c>
+      <c r="N4" t="n">
         <v>38.17583607507447</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.63891490167953</v>
-      </c>
-      <c r="J4" t="n">
-        <v>245.5907541896393</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>614.2884755670317</v>
-      </c>
-      <c r="N4" t="n">
-        <v>38.17583607507459</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>614.288475567032</v>
+        <v>614.2884755670322</v>
       </c>
       <c r="N4" t="n">
-        <v>38.17583607507447</v>
+        <v>38.17583607507459</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="C11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="D11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="E11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="H11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="I11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="T11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="U11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="V11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="W11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="X11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
     </row>
     <row r="12">
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.51399447315194</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>42.86753835504916</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.96585120160103</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,10 +28223,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>66.31939508349896</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>66.31939508349896</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="C13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="D13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="E13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="H13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="I13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="J13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="K13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="L13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="M13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="N13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="O13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="P13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="R13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="S13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="T13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="U13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="V13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="W13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="X13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="C14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="D14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="E14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="H14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="I14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="T14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="U14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="V14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="W14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="X14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.755396159656812e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-4.760636329592671e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="C16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="D16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="E16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="F16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="G16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="H16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="I16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="J16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="K16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="L16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="M16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="N16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="O16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="P16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="R16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="S16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="T16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="U16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="V16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="W16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="X16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349899</v>
       </c>
     </row>
     <row r="17">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="C19" t="n">
-        <v>146.6371781581061</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>146.6371781581061</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="H19" t="n">
-        <v>146.6371781581061</v>
+        <v>62.78076323741793</v>
       </c>
       <c r="I19" t="n">
         <v>118.5214726845017</v>
       </c>
       <c r="J19" t="n">
-        <v>6.540301506661294</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,13 +28767,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6817882833524</v>
+        <v>122.0785047107021</v>
       </c>
       <c r="S19" t="n">
         <v>146.6371781581061</v>
       </c>
       <c r="T19" t="n">
-        <v>146.6371781581061</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>146.6371781581061</v>
@@ -28959,7 +28959,7 @@
         <v>146.6371781581061</v>
       </c>
       <c r="C22" t="n">
-        <v>56.24046173075648</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="D22" t="n">
         <v>146.6371781581061</v>
@@ -28968,13 +28968,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>146.6371781581061</v>
+        <v>55.02433159558164</v>
       </c>
       <c r="H22" t="n">
-        <v>146.6371781581061</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>118.5214726845017</v>
@@ -29022,10 +29022,10 @@
         <v>146.6371781581061</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>146.6371781581061</v>
       </c>
     </row>
     <row r="23">
@@ -29202,7 +29202,7 @@
         <v>146.6371781581061</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29211,13 +29211,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.6371781581061</v>
+        <v>62.57754772588081</v>
       </c>
       <c r="I25" t="n">
         <v>118.5214726845017</v>
       </c>
       <c r="J25" t="n">
-        <v>6.540301506661294</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>122.0785047107021</v>
       </c>
       <c r="S25" t="n">
-        <v>56.24046173075649</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.6371781581061</v>
       </c>
       <c r="U25" t="n">
         <v>146.6371781581061</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="C26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="D26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="E26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="F26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="G26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="H26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="I26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="U26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="V26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="W26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="X26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="C28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="E28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="F28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="G28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="H28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="I28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="J28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="K28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="L28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="M28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="N28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="O28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="P28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="R28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="S28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="U28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="V28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="W28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="X28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="C29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="D29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="E29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="F29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="G29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="H29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="I29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="U29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="V29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="W29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="X29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="C31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="E31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="F31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="G31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="H31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="I31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="J31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="K31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="L31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="M31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="N31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="O31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="P31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="R31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="S31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="U31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="V31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="W31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="X31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.31778307460718</v>
+        <v>80.31778307460715</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="C32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="D32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="E32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="F32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="G32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="H32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="I32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="T32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="U32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="V32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="W32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="X32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="C34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="D34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="E34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="F34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="G34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="H34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="I34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="J34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="K34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="L34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="M34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="N34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="O34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="P34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="R34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="S34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="T34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="U34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="V34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="W34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="X34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460716</v>
       </c>
     </row>
     <row r="35">
@@ -30186,7 +30186,7 @@
         <v>80.31778307460716</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.31778307460716</v>
+        <v>80.31778307460736</v>
       </c>
       <c r="R37" t="n">
         <v>80.31778307460716</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="C38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="D38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="E38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="F38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="G38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="H38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="I38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="T38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="U38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="V38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="W38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="X38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="C40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="D40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="E40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="F40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="G40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="H40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="I40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="J40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="K40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="L40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="M40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460661</v>
       </c>
       <c r="N40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="O40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="P40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="R40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="S40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="T40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="U40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="V40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="W40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="X40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="C41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="D41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="E41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="F41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="G41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="H41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="I41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="T41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="U41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="V41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="W41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="X41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="C43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="D43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="E43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="F43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="G43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="H43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="I43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="J43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="K43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="L43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="M43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="N43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="O43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="P43" t="n">
-        <v>80.31778307460635</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="R43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="S43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="T43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="U43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="V43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="W43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="X43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460719</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="K46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="L46" t="n">
-        <v>80.31778307460525</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="M46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="N46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="O46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="P46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.3177830746057</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="R46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="S46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.31778307460725</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
   </sheetData>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.737592602441653</v>
+        <v>2.737592602441652</v>
       </c>
       <c r="H41" t="n">
         <v>28.03637023975558</v>
@@ -34132,22 +34132,22 @@
         <v>232.3497501414824</v>
       </c>
       <c r="K41" t="n">
-        <v>348.2320450028377</v>
+        <v>348.2320450028376</v>
       </c>
       <c r="L41" t="n">
         <v>432.0126446098114</v>
       </c>
       <c r="M41" t="n">
-        <v>480.6973070534832</v>
+        <v>480.6973070534831</v>
       </c>
       <c r="N41" t="n">
-        <v>488.4754920351706</v>
+        <v>488.4754920351705</v>
       </c>
       <c r="O41" t="n">
         <v>461.2535555946413</v>
       </c>
       <c r="P41" t="n">
-        <v>393.669238221863</v>
+        <v>393.6692382218629</v>
       </c>
       <c r="Q41" t="n">
         <v>295.6292031469212</v>
@@ -34156,13 +34156,13 @@
         <v>171.9653013131256</v>
       </c>
       <c r="S41" t="n">
-        <v>62.38289142813922</v>
+        <v>62.38289142813921</v>
       </c>
       <c r="T41" t="n">
         <v>11.98381161718834</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2190074081953322</v>
+        <v>0.2190074081953321</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.464741174032816</v>
+        <v>1.464741174032815</v>
       </c>
       <c r="H42" t="n">
         <v>14.14631607552746</v>
       </c>
       <c r="I42" t="n">
-        <v>50.43078164981405</v>
+        <v>50.43078164981404</v>
       </c>
       <c r="J42" t="n">
         <v>138.3859194291267</v>
@@ -34214,34 +34214,34 @@
         <v>236.5235780893253</v>
       </c>
       <c r="L42" t="n">
-        <v>318.0351395635726</v>
+        <v>318.0351395635725</v>
       </c>
       <c r="M42" t="n">
-        <v>371.1320071222621</v>
+        <v>371.1320071222619</v>
       </c>
       <c r="N42" t="n">
-        <v>380.9547670130348</v>
+        <v>380.9547670130347</v>
       </c>
       <c r="O42" t="n">
         <v>348.4991862620971</v>
       </c>
       <c r="P42" t="n">
-        <v>279.701321206319</v>
+        <v>279.7013212063189</v>
       </c>
       <c r="Q42" t="n">
         <v>186.9729260046099</v>
       </c>
       <c r="R42" t="n">
-        <v>90.94243885793222</v>
+        <v>90.9424388579322</v>
       </c>
       <c r="S42" t="n">
         <v>27.20692487732004</v>
       </c>
       <c r="T42" t="n">
-        <v>5.903934819895426</v>
+        <v>5.903934819895425</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09636455092321158</v>
+        <v>0.09636455092321157</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,7 +34287,7 @@
         <v>36.9290022427566</v>
       </c>
       <c r="J43" t="n">
-        <v>86.81887861001148</v>
+        <v>86.81887861001147</v>
       </c>
       <c r="K43" t="n">
         <v>142.6700872619193</v>
@@ -34299,7 +34299,7 @@
         <v>192.4929823675489</v>
       </c>
       <c r="N43" t="n">
-        <v>187.9159294898193</v>
+        <v>187.9159294898192</v>
       </c>
       <c r="O43" t="n">
         <v>173.5707759583977</v>
@@ -34320,7 +34320,7 @@
         <v>5.246865493982948</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06698126162531433</v>
+        <v>0.06698126162531431</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.737592602441653</v>
+        <v>2.737592602441652</v>
       </c>
       <c r="H44" t="n">
         <v>28.03637023975558</v>
@@ -34369,22 +34369,22 @@
         <v>232.3497501414824</v>
       </c>
       <c r="K44" t="n">
-        <v>348.2320450028377</v>
+        <v>348.2320450028376</v>
       </c>
       <c r="L44" t="n">
         <v>432.0126446098114</v>
       </c>
       <c r="M44" t="n">
-        <v>480.6973070534832</v>
+        <v>480.6973070534831</v>
       </c>
       <c r="N44" t="n">
-        <v>488.4754920351706</v>
+        <v>488.4754920351705</v>
       </c>
       <c r="O44" t="n">
         <v>461.2535555946413</v>
       </c>
       <c r="P44" t="n">
-        <v>393.669238221863</v>
+        <v>393.6692382218629</v>
       </c>
       <c r="Q44" t="n">
         <v>295.6292031469212</v>
@@ -34393,13 +34393,13 @@
         <v>171.9653013131256</v>
       </c>
       <c r="S44" t="n">
-        <v>62.38289142813922</v>
+        <v>62.38289142813921</v>
       </c>
       <c r="T44" t="n">
         <v>11.98381161718834</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2190074081953322</v>
+        <v>0.2190074081953321</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.464741174032816</v>
+        <v>1.464741174032815</v>
       </c>
       <c r="H45" t="n">
         <v>14.14631607552746</v>
       </c>
       <c r="I45" t="n">
-        <v>50.43078164981405</v>
+        <v>50.43078164981404</v>
       </c>
       <c r="J45" t="n">
         <v>138.3859194291267</v>
@@ -34451,34 +34451,34 @@
         <v>236.5235780893253</v>
       </c>
       <c r="L45" t="n">
-        <v>318.0351395635726</v>
+        <v>318.0351395635725</v>
       </c>
       <c r="M45" t="n">
-        <v>371.1320071222621</v>
+        <v>371.1320071222619</v>
       </c>
       <c r="N45" t="n">
-        <v>380.9547670130348</v>
+        <v>380.9547670130347</v>
       </c>
       <c r="O45" t="n">
         <v>348.4991862620971</v>
       </c>
       <c r="P45" t="n">
-        <v>279.701321206319</v>
+        <v>279.7013212063189</v>
       </c>
       <c r="Q45" t="n">
         <v>186.9729260046099</v>
       </c>
       <c r="R45" t="n">
-        <v>90.94243885793222</v>
+        <v>90.9424388579322</v>
       </c>
       <c r="S45" t="n">
         <v>27.20692487732004</v>
       </c>
       <c r="T45" t="n">
-        <v>5.903934819895426</v>
+        <v>5.903934819895425</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09636455092321158</v>
+        <v>0.09636455092321157</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,7 +34524,7 @@
         <v>36.9290022427566</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81887861001148</v>
+        <v>86.81887861001147</v>
       </c>
       <c r="K46" t="n">
         <v>142.6700872619193</v>
@@ -34536,7 +34536,7 @@
         <v>192.4929823675489</v>
       </c>
       <c r="N46" t="n">
-        <v>187.9159294898193</v>
+        <v>187.9159294898192</v>
       </c>
       <c r="O46" t="n">
         <v>173.5707759583977</v>
@@ -34557,7 +34557,7 @@
         <v>5.246865493982948</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06698126162531433</v>
+        <v>0.06698126162531431</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.4004607868699</v>
+        <v>51.30384561479613</v>
       </c>
       <c r="K11" t="n">
-        <v>452.2876065290218</v>
+        <v>128.1421939578571</v>
       </c>
       <c r="L11" t="n">
-        <v>249.2037975574926</v>
+        <v>613.9074441902746</v>
       </c>
       <c r="M11" t="n">
-        <v>250.3510738262105</v>
+        <v>535.6809232676263</v>
       </c>
       <c r="N11" t="n">
-        <v>259.0624284385797</v>
+        <v>614.2884755670322</v>
       </c>
       <c r="O11" t="n">
         <v>231.1553441729546</v>
       </c>
       <c r="P11" t="n">
-        <v>484.2349506380761</v>
+        <v>162.4362424665935</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.6385039323764</v>
+        <v>73.32351327247173</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.09618337197594</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>137.6393281028688</v>
       </c>
       <c r="K12" t="n">
-        <v>363.1473761275449</v>
+        <v>98.68213911496633</v>
       </c>
       <c r="L12" t="n">
-        <v>525.7753696172061</v>
+        <v>550.3211050871575</v>
       </c>
       <c r="M12" t="n">
         <v>228.9979732002437</v>
@@ -35501,7 +35501,7 @@
         <v>249.6130549297015</v>
       </c>
       <c r="O12" t="n">
-        <v>205.9029418176527</v>
+        <v>445.8224433602805</v>
       </c>
       <c r="P12" t="n">
         <v>464.1896824319259</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.77909357683767</v>
+        <v>59.7790935768377</v>
       </c>
       <c r="K13" t="n">
-        <v>186.7199905195354</v>
+        <v>186.7199905195355</v>
       </c>
       <c r="L13" t="n">
         <v>276.4780124472134</v>
       </c>
       <c r="M13" t="n">
-        <v>298.3962544128884</v>
+        <v>298.3962544128885</v>
       </c>
       <c r="N13" t="n">
         <v>298.3674969525468</v>
@@ -35583,10 +35583,10 @@
         <v>264.4752989559364</v>
       </c>
       <c r="P13" t="n">
-        <v>212.1177384589225</v>
+        <v>212.1177384589226</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.98475197026617</v>
+        <v>82.9847519702662</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>452.2876065290218</v>
       </c>
       <c r="L14" t="n">
-        <v>378.2685004625794</v>
+        <v>196.2462296398242</v>
       </c>
       <c r="M14" t="n">
         <v>250.3510738262105</v>
@@ -35659,7 +35659,7 @@
         <v>259.0624284385797</v>
       </c>
       <c r="O14" t="n">
-        <v>231.1553441729546</v>
+        <v>413.1776149957105</v>
       </c>
       <c r="P14" t="n">
         <v>484.2349506380761</v>
@@ -35726,16 +35726,16 @@
         <v>137.6393281028688</v>
       </c>
       <c r="K15" t="n">
-        <v>98.68213911496633</v>
+        <v>363.1473761275449</v>
       </c>
       <c r="L15" t="n">
         <v>550.3211050871575</v>
       </c>
       <c r="M15" t="n">
-        <v>652.4643116421065</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="N15" t="n">
-        <v>652.4643116421065</v>
+        <v>481.3019236707367</v>
       </c>
       <c r="O15" t="n">
         <v>205.9029418176527</v>
@@ -35744,7 +35744,7 @@
         <v>145.7269137919887</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.2940009597966</v>
+        <v>46.99115191858843</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.77909357683767</v>
+        <v>59.7790935768377</v>
       </c>
       <c r="K16" t="n">
-        <v>186.7199905195354</v>
+        <v>186.7199905195355</v>
       </c>
       <c r="L16" t="n">
         <v>276.4780124472134</v>
       </c>
       <c r="M16" t="n">
-        <v>298.3962544128884</v>
+        <v>298.3962544128885</v>
       </c>
       <c r="N16" t="n">
         <v>298.3674969525468</v>
@@ -35820,10 +35820,10 @@
         <v>264.4752989559364</v>
       </c>
       <c r="P16" t="n">
-        <v>212.1177384589225</v>
+        <v>212.1177384589226</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.98475197026617</v>
+        <v>82.9847519702662</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>220.4004607868699</v>
+        <v>51.30384561479613</v>
       </c>
       <c r="K17" t="n">
         <v>452.2876065290218</v>
       </c>
       <c r="L17" t="n">
-        <v>378.2685004625798</v>
+        <v>613.9074441902746</v>
       </c>
       <c r="M17" t="n">
-        <v>250.3510738262105</v>
+        <v>359.2184462112075</v>
       </c>
       <c r="N17" t="n">
         <v>259.0624284385797</v>
       </c>
       <c r="O17" t="n">
-        <v>231.1553441729546</v>
+        <v>611.9555254357</v>
       </c>
       <c r="P17" t="n">
-        <v>484.2349506380761</v>
+        <v>162.4362424665935</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.6385039323764</v>
+        <v>73.32351327247173</v>
       </c>
       <c r="R17" t="n">
-        <v>22.09618337197594</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>98.68213911496633</v>
       </c>
       <c r="L18" t="n">
-        <v>375.8526701920454</v>
+        <v>375.8526701920458</v>
       </c>
       <c r="M18" t="n">
-        <v>652.4643116421066</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="N18" t="n">
-        <v>652.4643116421066</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="O18" t="n">
         <v>599.7652610943821</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>220.4004607868699</v>
+        <v>51.30384561479613</v>
       </c>
       <c r="K20" t="n">
-        <v>452.2876065290218</v>
+        <v>128.1421939578571</v>
       </c>
       <c r="L20" t="n">
-        <v>209.7833098597384</v>
+        <v>613.9074441902746</v>
       </c>
       <c r="M20" t="n">
-        <v>250.3510738262105</v>
+        <v>471.0488681224676</v>
       </c>
       <c r="N20" t="n">
         <v>259.0624284385797</v>
@@ -36136,13 +36136,13 @@
         <v>611.9555254357</v>
       </c>
       <c r="P20" t="n">
-        <v>484.2349506380761</v>
+        <v>162.4362424665935</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.32351327247173</v>
+        <v>285.6385039323764</v>
       </c>
       <c r="R20" t="n">
-        <v>22.09618337197594</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>363.1473761275449</v>
       </c>
       <c r="L21" t="n">
-        <v>274.0849991818643</v>
+        <v>253.4699174524062</v>
       </c>
       <c r="M21" t="n">
-        <v>228.9979732002437</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="N21" t="n">
-        <v>652.4643116421065</v>
+        <v>249.6130549297015</v>
       </c>
       <c r="O21" t="n">
         <v>205.9029418176527</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.30384561479613</v>
+        <v>106.1264331468635</v>
       </c>
       <c r="K23" t="n">
-        <v>452.2876065290218</v>
+        <v>128.1421939578571</v>
       </c>
       <c r="L23" t="n">
         <v>613.9074441902746</v>
       </c>
       <c r="M23" t="n">
-        <v>250.3510738262105</v>
+        <v>671.103226543786</v>
       </c>
       <c r="N23" t="n">
-        <v>259.0624284385797</v>
+        <v>671.103226543786</v>
       </c>
       <c r="O23" t="n">
-        <v>611.9555254357</v>
+        <v>231.1553441729546</v>
       </c>
       <c r="P23" t="n">
-        <v>345.1061869875323</v>
+        <v>162.4362424665935</v>
       </c>
       <c r="Q23" t="n">
         <v>73.32351327247173</v>
@@ -36449,10 +36449,10 @@
         <v>249.6130549297015</v>
       </c>
       <c r="O24" t="n">
-        <v>599.7652610943821</v>
+        <v>332.5180926247644</v>
       </c>
       <c r="P24" t="n">
-        <v>196.9425139623085</v>
+        <v>464.1896824319259</v>
       </c>
       <c r="Q24" t="n">
         <v>257.0684396544375</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.30384561479619</v>
+        <v>220.40046078687</v>
       </c>
       <c r="K26" t="n">
         <v>452.2876065290219</v>
@@ -36601,22 +36601,22 @@
         <v>613.9074441902748</v>
       </c>
       <c r="M26" t="n">
-        <v>699.864607319043</v>
+        <v>680.1546789751329</v>
       </c>
       <c r="N26" t="n">
-        <v>696.4093528505639</v>
+        <v>259.0624284385797</v>
       </c>
       <c r="O26" t="n">
         <v>611.9555254357001</v>
       </c>
       <c r="P26" t="n">
-        <v>430.6858870861359</v>
+        <v>484.2349506380762</v>
       </c>
       <c r="Q26" t="n">
-        <v>73.32351327247179</v>
+        <v>285.6385039323765</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>22.09618337197597</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.54829276246002</v>
+        <v>137.6393281028689</v>
       </c>
       <c r="K27" t="n">
-        <v>98.68213911496636</v>
+        <v>234.0182027844997</v>
       </c>
       <c r="L27" t="n">
         <v>179.4807597836984</v>
@@ -36689,10 +36689,10 @@
         <v>205.9029418176527</v>
       </c>
       <c r="P27" t="n">
-        <v>464.189682431926</v>
+        <v>145.7269137919888</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.0327700244422</v>
+        <v>257.0684396544376</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.7774815679459</v>
+        <v>73.77748156794587</v>
       </c>
       <c r="K28" t="n">
-        <v>200.7183785106437</v>
+        <v>200.7183785106436</v>
       </c>
       <c r="L28" t="n">
         <v>290.4764004383215</v>
@@ -36771,7 +36771,7 @@
         <v>226.1161264500307</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.98313996137441</v>
+        <v>96.98313996137438</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>613.9074441902746</v>
       </c>
       <c r="M29" t="n">
-        <v>699.864607319043</v>
+        <v>250.3510738262105</v>
       </c>
       <c r="N29" t="n">
-        <v>696.4093528505639</v>
+        <v>688.8660335875023</v>
       </c>
       <c r="O29" t="n">
-        <v>231.1553441729546</v>
+        <v>611.9555254357</v>
       </c>
       <c r="P29" t="n">
         <v>484.2349506380761</v>
       </c>
       <c r="Q29" t="n">
-        <v>231.4780158112033</v>
+        <v>285.6385039323764</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>22.09618337197594</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.54829276245999</v>
+        <v>137.6393281028688</v>
       </c>
       <c r="K30" t="n">
-        <v>98.68213911496633</v>
+        <v>363.1473761275449</v>
       </c>
       <c r="L30" t="n">
         <v>550.3211050871575</v>
       </c>
       <c r="M30" t="n">
-        <v>352.3070770836135</v>
+        <v>228.9979732002437</v>
       </c>
       <c r="N30" t="n">
         <v>249.6130549297015</v>
       </c>
       <c r="O30" t="n">
-        <v>599.7652610943821</v>
+        <v>332.5180926247647</v>
       </c>
       <c r="P30" t="n">
         <v>464.1896824319259</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77748156794588</v>
+        <v>73.77748156794586</v>
       </c>
       <c r="K31" t="n">
         <v>200.7183785106436</v>
@@ -36996,19 +36996,19 @@
         <v>290.4764004383215</v>
       </c>
       <c r="M31" t="n">
-        <v>312.3946424039967</v>
+        <v>312.3946424039966</v>
       </c>
       <c r="N31" t="n">
         <v>312.365884943655</v>
       </c>
       <c r="O31" t="n">
-        <v>278.4736869470446</v>
+        <v>278.4736869470445</v>
       </c>
       <c r="P31" t="n">
         <v>226.1161264500307</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.98313996137439</v>
+        <v>96.98313996137436</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.4004607868699</v>
+        <v>51.30384561479613</v>
       </c>
       <c r="K32" t="n">
         <v>452.2876065290218</v>
@@ -37075,7 +37075,7 @@
         <v>613.9074441902746</v>
       </c>
       <c r="M32" t="n">
-        <v>699.864607319043</v>
+        <v>646.3155437671028</v>
       </c>
       <c r="N32" t="n">
         <v>696.4093528505639</v>
@@ -37084,10 +37084,10 @@
         <v>611.9555254357</v>
       </c>
       <c r="P32" t="n">
-        <v>162.4362424665935</v>
+        <v>484.2349506380761</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.4765427199411</v>
+        <v>73.32351327247173</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245999</v>
       </c>
       <c r="K33" t="n">
         <v>98.68213911496633</v>
@@ -37154,19 +37154,19 @@
         <v>550.3211050871575</v>
       </c>
       <c r="M33" t="n">
-        <v>228.9979732002437</v>
+        <v>694.7030369502436</v>
       </c>
       <c r="N33" t="n">
-        <v>640.693442749392</v>
+        <v>249.6130549297015</v>
       </c>
       <c r="O33" t="n">
-        <v>205.9029418176527</v>
+        <v>599.7652610943821</v>
       </c>
       <c r="P33" t="n">
-        <v>464.1896824319259</v>
+        <v>145.7269137919887</v>
       </c>
       <c r="Q33" t="n">
-        <v>257.0684396544375</v>
+        <v>233.1352484277445</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.77748156794586</v>
+        <v>73.77748156794587</v>
       </c>
       <c r="K34" t="n">
         <v>200.7183785106436</v>
@@ -37233,7 +37233,7 @@
         <v>290.4764004383215</v>
       </c>
       <c r="M34" t="n">
-        <v>312.3946424039966</v>
+        <v>312.3946424039967</v>
       </c>
       <c r="N34" t="n">
         <v>312.365884943655</v>
@@ -37245,7 +37245,7 @@
         <v>226.1161264500307</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.98313996137436</v>
+        <v>96.98313996137438</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.30384561479613</v>
+        <v>220.4004607868699</v>
       </c>
       <c r="K35" t="n">
         <v>452.2876065290218</v>
@@ -37312,7 +37312,7 @@
         <v>613.9074441902746</v>
       </c>
       <c r="M35" t="n">
-        <v>699.864607319043</v>
+        <v>264.9039379351247</v>
       </c>
       <c r="N35" t="n">
         <v>696.4093528505639</v>
@@ -37321,10 +37321,10 @@
         <v>611.9555254357</v>
       </c>
       <c r="P35" t="n">
-        <v>430.6858870861349</v>
+        <v>484.2349506380761</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.32351327247173</v>
+        <v>285.6385039323764</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.54829276245999</v>
+        <v>137.6393281028688</v>
       </c>
       <c r="K36" t="n">
-        <v>221.9912429983362</v>
+        <v>234.0182027844997</v>
       </c>
       <c r="L36" t="n">
-        <v>550.3211050871575</v>
+        <v>179.4807597836984</v>
       </c>
       <c r="M36" t="n">
-        <v>228.9979732002437</v>
+        <v>694.7030369502436</v>
       </c>
       <c r="N36" t="n">
-        <v>249.6130549297015</v>
+        <v>728.955429273255</v>
       </c>
       <c r="O36" t="n">
-        <v>599.7652610943821</v>
+        <v>205.9029418176527</v>
       </c>
       <c r="P36" t="n">
-        <v>464.1896824319259</v>
+        <v>145.7269137919887</v>
       </c>
       <c r="Q36" t="n">
         <v>257.0684396544375</v>
@@ -37482,7 +37482,7 @@
         <v>226.1161264500307</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.98313996137438</v>
+        <v>96.98313996137458</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>613.9074441902746</v>
       </c>
       <c r="M38" t="n">
-        <v>264.9039379351242</v>
+        <v>699.864607319043</v>
       </c>
       <c r="N38" t="n">
-        <v>696.4093528505639</v>
+        <v>642.2488647293906</v>
       </c>
       <c r="O38" t="n">
-        <v>611.9555254357</v>
+        <v>231.1553441729546</v>
       </c>
       <c r="P38" t="n">
         <v>484.2349506380761</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.46944736910038</v>
+        <v>137.6393281028688</v>
       </c>
       <c r="K39" t="n">
         <v>363.1473761275449</v>
@@ -37628,19 +37628,19 @@
         <v>550.3211050871575</v>
       </c>
       <c r="M39" t="n">
-        <v>228.9979732002437</v>
+        <v>355.6131240073556</v>
       </c>
       <c r="N39" t="n">
         <v>249.6130549297015</v>
       </c>
       <c r="O39" t="n">
-        <v>599.7652610943821</v>
+        <v>205.9029418176527</v>
       </c>
       <c r="P39" t="n">
         <v>464.1896824319259</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.99115191858843</v>
+        <v>257.0684396544375</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.77748156794591</v>
+        <v>73.7774815679459</v>
       </c>
       <c r="K40" t="n">
         <v>200.7183785106437</v>
@@ -37707,7 +37707,7 @@
         <v>290.4764004383215</v>
       </c>
       <c r="M40" t="n">
-        <v>312.3946424039967</v>
+        <v>312.3946424039961</v>
       </c>
       <c r="N40" t="n">
         <v>312.365884943655</v>
@@ -37719,7 +37719,7 @@
         <v>226.1161264500308</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.98313996137442</v>
+        <v>96.98313996137441</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>452.2876065290218</v>
       </c>
       <c r="L41" t="n">
-        <v>613.9074441902746</v>
+        <v>594.1975158463645</v>
       </c>
       <c r="M41" t="n">
-        <v>699.864607319043</v>
+        <v>699.8646073190429</v>
       </c>
       <c r="N41" t="n">
-        <v>259.0624284385797</v>
+        <v>259.0624284385796</v>
       </c>
       <c r="O41" t="n">
-        <v>592.2455970917887</v>
+        <v>611.9555254356999</v>
       </c>
       <c r="P41" t="n">
-        <v>484.2349506380761</v>
+        <v>484.234950638076</v>
       </c>
       <c r="Q41" t="n">
         <v>285.6385039323764</v>
       </c>
       <c r="R41" t="n">
-        <v>22.09618337197594</v>
+        <v>22.09618337197591</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.54829276245999</v>
+        <v>137.6393281028688</v>
       </c>
       <c r="K42" t="n">
-        <v>98.68213911496633</v>
+        <v>363.1473761275449</v>
       </c>
       <c r="L42" t="n">
-        <v>179.4807597836984</v>
+        <v>550.3211050871575</v>
       </c>
       <c r="M42" t="n">
-        <v>694.7030369502436</v>
+        <v>228.9979732002436</v>
       </c>
       <c r="N42" t="n">
-        <v>728.955429273255</v>
+        <v>249.6130549297014</v>
       </c>
       <c r="O42" t="n">
-        <v>599.7652610943821</v>
+        <v>332.5180926247654</v>
       </c>
       <c r="P42" t="n">
-        <v>145.7269137919887</v>
+        <v>464.1896824319259</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.6332193876504</v>
+        <v>257.0684396544375</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.77748156794591</v>
+        <v>73.77748156794588</v>
       </c>
       <c r="K43" t="n">
-        <v>200.7183785106437</v>
+        <v>200.7183785106436</v>
       </c>
       <c r="L43" t="n">
         <v>290.4764004383215</v>
@@ -37950,13 +37950,13 @@
         <v>312.365884943655</v>
       </c>
       <c r="O43" t="n">
-        <v>278.4736869470446</v>
+        <v>278.4736869470445</v>
       </c>
       <c r="P43" t="n">
-        <v>226.1161264500299</v>
+        <v>226.1161264500307</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.98313996137442</v>
+        <v>96.98313996137439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>220.4004607868699</v>
       </c>
       <c r="K44" t="n">
-        <v>452.2876065290218</v>
+        <v>376.0309350358727</v>
       </c>
       <c r="L44" t="n">
         <v>613.9074441902746</v>
       </c>
       <c r="M44" t="n">
-        <v>699.864607319043</v>
+        <v>699.8646073190429</v>
       </c>
       <c r="N44" t="n">
-        <v>696.4093528505639</v>
+        <v>696.4093528505637</v>
       </c>
       <c r="O44" t="n">
-        <v>611.9555254357</v>
+        <v>231.1553441729546</v>
       </c>
       <c r="P44" t="n">
-        <v>162.4362424665935</v>
+        <v>484.234950638076</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.4765427199393</v>
+        <v>285.6385039323764</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>22.09618337197591</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11.54829276245999</v>
+        <v>137.6393281028688</v>
       </c>
       <c r="K45" t="n">
-        <v>363.1473761275449</v>
+        <v>234.0182027845001</v>
       </c>
       <c r="L45" t="n">
-        <v>550.3211050871575</v>
+        <v>179.4807597836983</v>
       </c>
       <c r="M45" t="n">
-        <v>228.9979732002437</v>
+        <v>694.7030369502436</v>
       </c>
       <c r="N45" t="n">
-        <v>249.6130549297015</v>
+        <v>728.9554292732549</v>
       </c>
       <c r="O45" t="n">
-        <v>458.6091279651734</v>
+        <v>205.9029418176526</v>
       </c>
       <c r="P45" t="n">
-        <v>464.1896824319259</v>
+        <v>145.7269137919887</v>
       </c>
       <c r="Q45" t="n">
         <v>257.0684396544375</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.77748156794596</v>
+        <v>73.77748156794593</v>
       </c>
       <c r="K46" t="n">
         <v>200.7183785106437</v>
       </c>
       <c r="L46" t="n">
-        <v>290.4764004383196</v>
+        <v>290.4764004383215</v>
       </c>
       <c r="M46" t="n">
         <v>312.3946424039967</v>
       </c>
       <c r="N46" t="n">
-        <v>312.3658849436551</v>
+        <v>312.365884943655</v>
       </c>
       <c r="O46" t="n">
-        <v>278.4736869470447</v>
+        <v>278.4736869470446</v>
       </c>
       <c r="P46" t="n">
-        <v>226.1161264500308</v>
+        <v>226.1161264500292</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.98313996137446</v>
+        <v>96.98313996137443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
